--- a/src/sql/HouseCD接口文档0.1.xlsx
+++ b/src/sql/HouseCD接口文档0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347" activeTab="1"/>
+    <workbookView windowWidth="22488" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="小程序" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
     <t>houses_info集合</t>
   </si>
   <si>
-    <t>新房-(区域/价格/筛选)</t>
+    <t>楼盘-新房-(区域/价格/筛选)</t>
   </si>
   <si>
     <t>areaId</t>
@@ -2499,7 +2499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2650,6 +2650,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2659,6 +2662,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2701,9 +2707,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2724,6 +2727,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3118,8 +3124,8 @@
   <sheetPr/>
   <dimension ref="A1:K158"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="G148" sqref="G148"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4"/>
@@ -3292,7 +3298,7 @@
         <v>19</v>
       </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="50" t="s">
         <v>29</v>
       </c>
       <c r="I8" s="15"/>
@@ -3303,9 +3309,9 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="8"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
       <c r="G9" s="15"/>
@@ -3316,19 +3322,19 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="8"/>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="19"/>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="54" t="s">
         <v>32</v>
       </c>
       <c r="I10" s="35"/>
@@ -3337,11 +3343,11 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="8"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="I11" s="35"/>
@@ -3350,11 +3356,11 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="8"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="35"/>
@@ -3363,11 +3369,11 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="8"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="35"/>
@@ -3376,19 +3382,19 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="8"/>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="56" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="24"/>
@@ -3405,13 +3411,13 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="8"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="54" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="56" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="24"/>
@@ -3426,13 +3432,13 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="8"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="54" t="s">
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="56" t="s">
         <v>38</v>
       </c>
       <c r="G16" s="24"/>
@@ -3447,13 +3453,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="8"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="54" t="s">
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="56" t="s">
         <v>40</v>
       </c>
       <c r="G17" s="24"/>
@@ -3464,13 +3470,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="8"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="54" t="s">
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="56" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="24"/>
@@ -3481,13 +3487,13 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="8"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="54" t="s">
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="56" t="s">
         <v>44</v>
       </c>
       <c r="G19" s="24"/>
@@ -3498,7 +3504,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="8"/>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="59" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="46" t="s">
@@ -3514,7 +3520,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="11"/>
-      <c r="H20" s="58" t="s">
+      <c r="H20" s="60" t="s">
         <v>47</v>
       </c>
       <c r="I20" s="11"/>
@@ -3525,7 +3531,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="8"/>
-      <c r="B21" s="59"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
@@ -3533,28 +3539,28 @@
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="8"/>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="53" t="s">
+      <c r="E22" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="60"/>
-      <c r="H22" s="61" t="s">
+      <c r="G22" s="62"/>
+      <c r="H22" s="63" t="s">
         <v>50</v>
       </c>
       <c r="I22" s="24"/>
@@ -3565,16 +3571,16 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="8"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="54" t="s">
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="54" t="s">
+      <c r="F23" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="62"/>
+      <c r="G23" s="64"/>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
@@ -3582,16 +3588,16 @@
     </row>
     <row r="24" ht="28.8" spans="1:11">
       <c r="A24" s="8"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="54" t="s">
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="54" t="s">
+      <c r="F24" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="62"/>
+      <c r="G24" s="64"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
@@ -3599,12 +3605,12 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="8"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="62"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="64"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
@@ -3612,12 +3618,12 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="8"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="63"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
@@ -3625,13 +3631,13 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="8"/>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="66" t="s">
         <v>57</v>
       </c>
       <c r="E27" s="44" t="s">
@@ -3640,7 +3646,7 @@
       <c r="F27" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="65"/>
+      <c r="G27" s="67"/>
       <c r="H27" s="11">
         <v>1</v>
       </c>
@@ -3652,12 +3658,12 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="8"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
       <c r="E28" s="44"/>
       <c r="F28" s="44"/>
-      <c r="G28" s="65"/>
+      <c r="G28" s="67"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
@@ -3665,19 +3671,19 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="8"/>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="68" t="s">
         <v>28</v>
       </c>
       <c r="E29" s="49"/>
       <c r="F29" s="49"/>
       <c r="G29" s="15"/>
-      <c r="H29" s="67" t="s">
+      <c r="H29" s="50" t="s">
         <v>63</v>
       </c>
       <c r="I29" s="15" t="s">
@@ -3688,9 +3694,9 @@
     </row>
     <row r="30" ht="28.8" spans="1:11">
       <c r="A30" s="8"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="49" t="s">
         <v>65</v>
       </c>
@@ -3702,10 +3708,10 @@
       <c r="K30" s="15"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="69"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
       <c r="E31" s="49"/>
       <c r="F31" s="49"/>
       <c r="G31" s="15"/>
@@ -3716,9 +3722,9 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="28"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
       <c r="E32" s="49"/>
       <c r="F32" s="49"/>
       <c r="G32" s="15"/>
@@ -3729,11 +3735,11 @@
     </row>
     <row r="33" s="3" customFormat="1" spans="1:11">
       <c r="A33" s="26"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
       <c r="I33" s="26"/>
@@ -3741,26 +3747,26 @@
       <c r="K33" s="26"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="72" t="s">
+      <c r="A34" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="73" t="s">
+      <c r="B34" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="73" t="s">
+      <c r="D34" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="74" t="s">
+      <c r="E34" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="74" t="s">
+      <c r="F34" s="75" t="s">
         <v>19</v>
       </c>
       <c r="G34" s="28"/>
-      <c r="H34" s="29" t="s">
+      <c r="H34" s="76" t="s">
         <v>69</v>
       </c>
       <c r="I34" s="28"/>
@@ -3769,13 +3775,13 @@
     </row>
     <row r="35" ht="28.8" spans="1:11">
       <c r="A35" s="8"/>
-      <c r="B35" s="75"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="74" t="s">
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="74" t="s">
+      <c r="F35" s="75" t="s">
         <v>70</v>
       </c>
       <c r="G35" s="28"/>
@@ -3786,11 +3792,11 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="8"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
@@ -3814,11 +3820,11 @@
       <c r="F37" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="G37" s="76"/>
-      <c r="H37" s="77">
+      <c r="G37" s="78"/>
+      <c r="H37" s="79">
         <v>0</v>
       </c>
-      <c r="I37" s="77" t="s">
+      <c r="I37" s="79" t="s">
         <v>16</v>
       </c>
       <c r="J37" s="15"/>
@@ -3826,9 +3832,9 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="8"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
       <c r="E38" s="49" t="s">
         <v>75</v>
       </c>
@@ -3847,9 +3853,9 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="8"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
       <c r="E39" s="49" t="s">
         <v>77</v>
       </c>
@@ -3868,9 +3874,9 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="8"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
       <c r="E40" s="49" t="s">
         <v>79</v>
       </c>
@@ -3885,9 +3891,9 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="8"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
       <c r="E41" s="49" t="s">
         <v>81</v>
       </c>
@@ -3902,19 +3908,19 @@
     </row>
     <row r="42" ht="19" customHeight="1" spans="1:11">
       <c r="A42" s="8"/>
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="79" t="s">
+      <c r="C42" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="79" t="s">
+      <c r="D42" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="80" t="s">
+      <c r="E42" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="F42" s="74" t="s">
+      <c r="F42" s="75" t="s">
         <v>82</v>
       </c>
       <c r="G42" s="28"/>
@@ -3927,11 +3933,11 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="8"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="74"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="75"/>
       <c r="G43" s="28"/>
       <c r="H43" s="28" t="s">
         <v>86</v>
@@ -3942,19 +3948,19 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="8"/>
-      <c r="B44" s="82" t="s">
+      <c r="B44" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="82" t="s">
+      <c r="C44" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="82" t="s">
+      <c r="D44" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="83" t="s">
+      <c r="E44" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="83" t="s">
+      <c r="F44" s="85" t="s">
         <v>19</v>
       </c>
       <c r="G44" s="32"/>
@@ -3968,12 +3974,12 @@
       <c r="K44" s="32"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="69"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
+      <c r="A45" s="70"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="87"/>
       <c r="G45" s="32"/>
       <c r="H45" s="32">
         <v>1</v>
@@ -3985,22 +3991,22 @@
       <c r="K45" s="32"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="86" t="s">
+      <c r="A46" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="73" t="s">
+      <c r="B46" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="73" t="s">
+      <c r="C46" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="73" t="s">
+      <c r="D46" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="74" t="s">
+      <c r="E46" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="F46" s="74" t="s">
+      <c r="F46" s="75" t="s">
         <v>82</v>
       </c>
       <c r="G46" s="28"/>
@@ -4013,11 +4019,11 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="28"/>
-      <c r="B47" s="75"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
       <c r="G47" s="28"/>
       <c r="H47" s="28" t="s">
         <v>96</v>
@@ -4028,11 +4034,11 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="28"/>
-      <c r="B48" s="87"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="75"/>
       <c r="G48" s="28"/>
       <c r="H48" s="28" t="s">
         <v>97</v>
@@ -4042,22 +4048,22 @@
       <c r="K48" s="28"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="86" t="s">
+      <c r="A49" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="73" t="s">
+      <c r="B49" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="73" t="s">
+      <c r="C49" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="D49" s="73" t="s">
+      <c r="D49" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="74" t="s">
+      <c r="E49" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="F49" s="74" t="s">
+      <c r="F49" s="75" t="s">
         <v>100</v>
       </c>
       <c r="G49" s="28"/>
@@ -4072,13 +4078,13 @@
     </row>
     <row r="50" ht="28.8" spans="1:11">
       <c r="A50" s="28"/>
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="74" t="s">
+      <c r="B50" s="89"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="F50" s="74" t="s">
+      <c r="F50" s="75" t="s">
         <v>103</v>
       </c>
       <c r="G50" s="28"/>
@@ -4093,11 +4099,11 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="28"/>
-      <c r="B51" s="87"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="75"/>
+      <c r="F51" s="75"/>
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
@@ -4106,11 +4112,11 @@
     </row>
     <row r="52" s="4" customFormat="1" spans="1:11">
       <c r="A52" s="33"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="89"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="91"/>
+      <c r="F52" s="91"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
       <c r="I52" s="33"/>
@@ -4118,14 +4124,14 @@
       <c r="K52" s="33"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="72" t="s">
+      <c r="A53" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="90"/>
-      <c r="C53" s="90"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
       <c r="G53" s="28"/>
       <c r="H53" s="28"/>
       <c r="I53" s="28"/>
@@ -4134,13 +4140,13 @@
     </row>
     <row r="54" ht="28.8" spans="1:11">
       <c r="A54" s="8"/>
-      <c r="B54" s="91" t="s">
+      <c r="B54" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="91" t="s">
+      <c r="C54" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="91" t="s">
+      <c r="D54" s="93" t="s">
         <v>28</v>
       </c>
       <c r="E54" s="49" t="s">
@@ -4161,19 +4167,19 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="8"/>
-      <c r="B55" s="90" t="s">
+      <c r="B55" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="90" t="s">
+      <c r="C55" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="90" t="s">
+      <c r="D55" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="E55" s="74" t="s">
+      <c r="E55" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="F55" s="74" t="s">
+      <c r="F55" s="75" t="s">
         <v>110</v>
       </c>
       <c r="G55" s="28"/>
@@ -4186,13 +4192,13 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="8"/>
-      <c r="B56" s="68" t="s">
+      <c r="B56" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="68" t="s">
+      <c r="C56" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="D56" s="68" t="s">
+      <c r="D56" s="69" t="s">
         <v>28</v>
       </c>
       <c r="E56" s="49" t="s">
@@ -4209,9 +4215,9 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="8"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
       <c r="E57" s="49" t="s">
         <v>21</v>
       </c>
@@ -4226,9 +4232,9 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="8"/>
-      <c r="B58" s="68"/>
-      <c r="C58" s="68"/>
-      <c r="D58" s="68"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="69"/>
       <c r="E58" s="49" t="s">
         <v>113</v>
       </c>
@@ -4243,9 +4249,9 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="8"/>
-      <c r="B59" s="70"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="71"/>
       <c r="E59" s="49" t="s">
         <v>115</v>
       </c>
@@ -4260,19 +4266,19 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="8"/>
-      <c r="B60" s="90" t="s">
+      <c r="B60" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="90" t="s">
+      <c r="C60" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="D60" s="90" t="s">
+      <c r="D60" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="74" t="s">
+      <c r="E60" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="F60" s="74"/>
+      <c r="F60" s="75"/>
       <c r="G60" s="28"/>
       <c r="H60" s="28">
         <v>1</v>
@@ -4285,11 +4291,11 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="8"/>
-      <c r="B61" s="90"/>
-      <c r="C61" s="90"/>
-      <c r="D61" s="90"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
+      <c r="B61" s="92"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="75"/>
+      <c r="F61" s="75"/>
       <c r="G61" s="28"/>
       <c r="H61" s="28">
         <v>0</v>
@@ -4302,10 +4308,10 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="8"/>
-      <c r="B62" s="91" t="s">
+      <c r="B62" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="C62" s="91" t="s">
+      <c r="C62" s="93" t="s">
         <v>121</v>
       </c>
       <c r="D62" s="49" t="s">
@@ -4329,8 +4335,8 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="8"/>
-      <c r="B63" s="91"/>
-      <c r="C63" s="91"/>
+      <c r="B63" s="93"/>
+      <c r="C63" s="93"/>
       <c r="D63" s="49"/>
       <c r="E63" s="49" t="s">
         <v>124</v>
@@ -4349,22 +4355,22 @@
       <c r="K63" s="15"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="86" t="s">
+      <c r="A64" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B64" s="73" t="s">
+      <c r="B64" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="73" t="s">
+      <c r="C64" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="D64" s="73" t="s">
+      <c r="D64" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="E64" s="74" t="s">
+      <c r="E64" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="F64" s="74" t="s">
+      <c r="F64" s="75" t="s">
         <v>100</v>
       </c>
       <c r="G64" s="28"/>
@@ -4379,11 +4385,11 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="28"/>
-      <c r="B65" s="87"/>
-      <c r="C65" s="87"/>
-      <c r="D65" s="87"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
+      <c r="B65" s="89"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="89"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="75"/>
       <c r="G65" s="28"/>
       <c r="H65" s="28">
         <v>0</v>
@@ -4396,11 +4402,11 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="8"/>
-      <c r="B66" s="90"/>
-      <c r="C66" s="90"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="74"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
       <c r="G66" s="28"/>
       <c r="H66" s="28"/>
       <c r="I66" s="28"/>
@@ -4409,11 +4415,11 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="28"/>
-      <c r="B67" s="90"/>
-      <c r="C67" s="90"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
       <c r="G67" s="28"/>
       <c r="H67" s="28"/>
       <c r="I67" s="28"/>
@@ -4422,11 +4428,11 @@
     </row>
     <row r="68" s="4" customFormat="1" spans="1:11">
       <c r="A68" s="33"/>
-      <c r="B68" s="92"/>
-      <c r="C68" s="92"/>
-      <c r="D68" s="89"/>
-      <c r="E68" s="89"/>
-      <c r="F68" s="89"/>
+      <c r="B68" s="94"/>
+      <c r="C68" s="94"/>
+      <c r="D68" s="91"/>
+      <c r="E68" s="91"/>
+      <c r="F68" s="91"/>
       <c r="G68" s="33"/>
       <c r="H68" s="33"/>
       <c r="I68" s="33"/>
@@ -4437,19 +4443,19 @@
       <c r="A69" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B69" s="74" t="s">
+      <c r="B69" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="C69" s="74" t="s">
+      <c r="C69" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="D69" s="74" t="s">
+      <c r="D69" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="E69" s="74" t="s">
+      <c r="E69" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="F69" s="74"/>
+      <c r="F69" s="75"/>
       <c r="G69" s="28"/>
       <c r="H69" s="28" t="s">
         <v>134</v>
@@ -4483,19 +4489,19 @@
     </row>
     <row r="71" ht="28.8" spans="1:11">
       <c r="A71" s="28"/>
-      <c r="B71" s="74" t="s">
+      <c r="B71" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="C71" s="74" t="s">
+      <c r="C71" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="D71" s="74" t="s">
+      <c r="D71" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="E71" s="74" t="s">
+      <c r="E71" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="F71" s="74"/>
+      <c r="F71" s="75"/>
       <c r="G71" s="28"/>
       <c r="H71" s="28" t="s">
         <v>142</v>
@@ -4517,31 +4523,31 @@
       </c>
       <c r="E72" s="49"/>
       <c r="F72" s="49"/>
-      <c r="G72" s="76"/>
-      <c r="H72" s="77" t="s">
+      <c r="G72" s="78"/>
+      <c r="H72" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="I72" s="77"/>
+      <c r="I72" s="79"/>
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
     </row>
     <row r="73" ht="43.2" spans="1:11">
-      <c r="A73" s="86" t="s">
+      <c r="A73" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B73" s="74" t="s">
+      <c r="B73" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="C73" s="74" t="s">
+      <c r="C73" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="D73" s="74" t="s">
+      <c r="D73" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="E73" s="74" t="s">
+      <c r="E73" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="F73" s="74" t="s">
+      <c r="F73" s="75" t="s">
         <v>148</v>
       </c>
       <c r="G73" s="28"/>
@@ -4554,11 +4560,11 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="28"/>
-      <c r="B74" s="74"/>
-      <c r="C74" s="74"/>
-      <c r="D74" s="74"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74" t="s">
+      <c r="B74" s="75"/>
+      <c r="C74" s="75"/>
+      <c r="D74" s="75"/>
+      <c r="E74" s="75"/>
+      <c r="F74" s="75" t="s">
         <v>150</v>
       </c>
       <c r="G74" s="28"/>
@@ -4569,119 +4575,119 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="28"/>
-      <c r="B75" s="74"/>
-      <c r="C75" s="74"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="74" t="s">
+      <c r="B75" s="75"/>
+      <c r="C75" s="75"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="F75" s="74" t="s">
+      <c r="F75" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="G75" s="93"/>
-      <c r="H75" s="93"/>
-      <c r="I75" s="93"/>
+      <c r="G75" s="95"/>
+      <c r="H75" s="95"/>
+      <c r="I75" s="95"/>
       <c r="J75" s="28"/>
       <c r="K75" s="28"/>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="28"/>
-      <c r="B76" s="74"/>
-      <c r="C76" s="74"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="74" t="s">
+      <c r="B76" s="75"/>
+      <c r="C76" s="75"/>
+      <c r="D76" s="75"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="G76" s="93"/>
-      <c r="H76" s="94"/>
-      <c r="I76" s="94"/>
+      <c r="G76" s="95"/>
+      <c r="H76" s="96"/>
+      <c r="I76" s="96"/>
       <c r="J76" s="28"/>
       <c r="K76" s="28"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="28"/>
-      <c r="B77" s="74"/>
-      <c r="C77" s="74"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="74" t="s">
+      <c r="B77" s="75"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="75"/>
+      <c r="F77" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="G77" s="93"/>
-      <c r="H77" s="94"/>
-      <c r="I77" s="94"/>
+      <c r="G77" s="95"/>
+      <c r="H77" s="96"/>
+      <c r="I77" s="96"/>
       <c r="J77" s="28"/>
       <c r="K77" s="28"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="28"/>
-      <c r="B78" s="74"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="74"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="74" t="s">
+      <c r="B78" s="75"/>
+      <c r="C78" s="75"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="75"/>
+      <c r="F78" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="G78" s="93"/>
-      <c r="H78" s="94"/>
-      <c r="I78" s="94"/>
+      <c r="G78" s="95"/>
+      <c r="H78" s="96"/>
+      <c r="I78" s="96"/>
       <c r="J78" s="28"/>
       <c r="K78" s="28"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="28"/>
-      <c r="B79" s="74"/>
-      <c r="C79" s="74"/>
-      <c r="D79" s="74"/>
-      <c r="E79" s="74"/>
-      <c r="F79" s="74" t="s">
+      <c r="B79" s="75"/>
+      <c r="C79" s="75"/>
+      <c r="D79" s="75"/>
+      <c r="E79" s="75"/>
+      <c r="F79" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="G79" s="93"/>
-      <c r="H79" s="94"/>
-      <c r="I79" s="94"/>
+      <c r="G79" s="95"/>
+      <c r="H79" s="96"/>
+      <c r="I79" s="96"/>
       <c r="J79" s="28"/>
       <c r="K79" s="28"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="28"/>
-      <c r="B80" s="74"/>
-      <c r="C80" s="74"/>
-      <c r="D80" s="74"/>
-      <c r="E80" s="74"/>
-      <c r="F80" s="74" t="s">
+      <c r="B80" s="75"/>
+      <c r="C80" s="75"/>
+      <c r="D80" s="75"/>
+      <c r="E80" s="75"/>
+      <c r="F80" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="G80" s="93"/>
-      <c r="H80" s="94"/>
-      <c r="I80" s="94"/>
+      <c r="G80" s="95"/>
+      <c r="H80" s="96"/>
+      <c r="I80" s="96"/>
       <c r="J80" s="28"/>
       <c r="K80" s="28"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="28"/>
-      <c r="B81" s="74"/>
-      <c r="C81" s="74"/>
-      <c r="D81" s="74"/>
-      <c r="E81" s="74"/>
-      <c r="F81" s="74" t="s">
+      <c r="B81" s="75"/>
+      <c r="C81" s="75"/>
+      <c r="D81" s="75"/>
+      <c r="E81" s="75"/>
+      <c r="F81" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="G81" s="93"/>
-      <c r="H81" s="94"/>
-      <c r="I81" s="94"/>
+      <c r="G81" s="95"/>
+      <c r="H81" s="96"/>
+      <c r="I81" s="96"/>
       <c r="J81" s="28"/>
       <c r="K81" s="28"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="86" t="s">
+      <c r="A82" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B82" s="66" t="s">
+      <c r="B82" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="C82" s="66" t="s">
+      <c r="C82" s="68" t="s">
         <v>160</v>
       </c>
       <c r="D82" s="49" t="s">
@@ -4693,16 +4699,16 @@
       <c r="F82" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="G82" s="76"/>
-      <c r="H82" s="77"/>
-      <c r="I82" s="77"/>
+      <c r="G82" s="78"/>
+      <c r="H82" s="79"/>
+      <c r="I82" s="79"/>
       <c r="J82" s="15"/>
       <c r="K82" s="15"/>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="28"/>
-      <c r="B83" s="68"/>
-      <c r="C83" s="68"/>
+      <c r="B83" s="69"/>
+      <c r="C83" s="69"/>
       <c r="D83" s="49"/>
       <c r="E83" s="49" t="s">
         <v>161</v>
@@ -4710,61 +4716,61 @@
       <c r="F83" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="G83" s="76"/>
-      <c r="H83" s="77"/>
-      <c r="I83" s="77"/>
+      <c r="G83" s="78"/>
+      <c r="H83" s="79"/>
+      <c r="I83" s="79"/>
       <c r="J83" s="15"/>
       <c r="K83" s="15"/>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="28"/>
-      <c r="B84" s="70"/>
-      <c r="C84" s="70"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="71"/>
       <c r="D84" s="49"/>
       <c r="E84" s="49"/>
       <c r="F84" s="49"/>
-      <c r="G84" s="76"/>
-      <c r="H84" s="77"/>
-      <c r="I84" s="77"/>
+      <c r="G84" s="78"/>
+      <c r="H84" s="79"/>
+      <c r="I84" s="79"/>
       <c r="J84" s="15"/>
       <c r="K84" s="15"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="86" t="s">
+      <c r="A85" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B85" s="74" t="s">
+      <c r="B85" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="C85" s="74" t="s">
+      <c r="C85" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="D85" s="74" t="s">
+      <c r="D85" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="E85" s="74"/>
-      <c r="F85" s="74"/>
-      <c r="G85" s="93"/>
-      <c r="H85" s="94"/>
-      <c r="I85" s="94"/>
+      <c r="E85" s="75"/>
+      <c r="F85" s="75"/>
+      <c r="G85" s="95"/>
+      <c r="H85" s="96"/>
+      <c r="I85" s="96"/>
       <c r="J85" s="28"/>
       <c r="K85" s="28"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="28"/>
-      <c r="B86" s="74"/>
-      <c r="C86" s="74"/>
-      <c r="D86" s="74"/>
-      <c r="E86" s="74"/>
-      <c r="F86" s="74"/>
-      <c r="G86" s="93"/>
-      <c r="H86" s="94"/>
-      <c r="I86" s="94"/>
+      <c r="B86" s="75"/>
+      <c r="C86" s="75"/>
+      <c r="D86" s="75"/>
+      <c r="E86" s="75"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="95"/>
+      <c r="H86" s="96"/>
+      <c r="I86" s="96"/>
       <c r="J86" s="28"/>
       <c r="K86" s="28"/>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="86" t="s">
+      <c r="A87" s="88" t="s">
         <v>92</v>
       </c>
       <c r="B87" s="49" t="s">
@@ -4776,9 +4782,9 @@
       <c r="D87" s="49"/>
       <c r="E87" s="49"/>
       <c r="F87" s="49"/>
-      <c r="G87" s="76"/>
-      <c r="H87" s="77"/>
-      <c r="I87" s="77"/>
+      <c r="G87" s="78"/>
+      <c r="H87" s="79"/>
+      <c r="I87" s="79"/>
       <c r="J87" s="15"/>
       <c r="K87" s="15"/>
     </row>
@@ -4789,34 +4795,34 @@
       <c r="D88" s="49"/>
       <c r="E88" s="49"/>
       <c r="F88" s="49"/>
-      <c r="G88" s="76"/>
-      <c r="H88" s="77"/>
-      <c r="I88" s="77"/>
+      <c r="G88" s="78"/>
+      <c r="H88" s="79"/>
+      <c r="I88" s="79"/>
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="28"/>
-      <c r="B89" s="74" t="s">
+      <c r="B89" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="C89" s="74" t="s">
+      <c r="C89" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="D89" s="74" t="s">
+      <c r="D89" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="74" t="s">
+      <c r="E89" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="F89" s="74" t="s">
+      <c r="F89" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="G89" s="93"/>
-      <c r="H89" s="94">
+      <c r="G89" s="95"/>
+      <c r="H89" s="96">
         <v>0</v>
       </c>
-      <c r="I89" s="94" t="s">
+      <c r="I89" s="96" t="s">
         <v>16</v>
       </c>
       <c r="J89" s="28"/>
@@ -4824,13 +4830,13 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="28"/>
-      <c r="B90" s="74"/>
-      <c r="C90" s="74"/>
-      <c r="D90" s="74"/>
-      <c r="E90" s="74" t="s">
+      <c r="B90" s="75"/>
+      <c r="C90" s="75"/>
+      <c r="D90" s="75"/>
+      <c r="E90" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="F90" s="74" t="s">
+      <c r="F90" s="75" t="s">
         <v>171</v>
       </c>
       <c r="G90" s="28"/>
@@ -4845,13 +4851,13 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="28"/>
-      <c r="B91" s="74"/>
-      <c r="C91" s="74"/>
-      <c r="D91" s="74"/>
-      <c r="E91" s="74" t="s">
+      <c r="B91" s="75"/>
+      <c r="C91" s="75"/>
+      <c r="D91" s="75"/>
+      <c r="E91" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="F91" s="74" t="s">
+      <c r="F91" s="75" t="s">
         <v>173</v>
       </c>
       <c r="G91" s="28"/>
@@ -4862,13 +4868,13 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="28"/>
-      <c r="B92" s="74"/>
-      <c r="C92" s="74"/>
-      <c r="D92" s="74"/>
-      <c r="E92" s="74" t="s">
+      <c r="B92" s="75"/>
+      <c r="C92" s="75"/>
+      <c r="D92" s="75"/>
+      <c r="E92" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="F92" s="74" t="s">
+      <c r="F92" s="75" t="s">
         <v>175</v>
       </c>
       <c r="G92" s="28"/>
@@ -4878,7 +4884,7 @@
       <c r="K92" s="28"/>
     </row>
     <row r="93" ht="28.8" spans="1:11">
-      <c r="A93" s="86" t="s">
+      <c r="A93" s="88" t="s">
         <v>92</v>
       </c>
       <c r="B93" s="49" t="s">
@@ -4892,38 +4898,38 @@
         <v>177</v>
       </c>
       <c r="F93" s="49"/>
-      <c r="G93" s="76"/>
-      <c r="H93" s="76"/>
-      <c r="I93" s="76"/>
+      <c r="G93" s="78"/>
+      <c r="H93" s="78"/>
+      <c r="I93" s="78"/>
       <c r="J93" s="15"/>
       <c r="K93" s="15"/>
     </row>
     <row r="94" ht="28.8" spans="1:11">
       <c r="A94" s="28"/>
-      <c r="B94" s="95" t="s">
+      <c r="B94" s="97" t="s">
         <v>178</v>
       </c>
-      <c r="C94" s="95" t="s">
+      <c r="C94" s="97" t="s">
         <v>179</v>
       </c>
-      <c r="D94" s="95" t="s">
+      <c r="D94" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="E94" s="95" t="s">
+      <c r="E94" s="97" t="s">
         <v>177</v>
       </c>
-      <c r="F94" s="95" t="s">
+      <c r="F94" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="G94" s="96"/>
-      <c r="H94" s="97" t="s">
+      <c r="G94" s="98"/>
+      <c r="H94" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="I94" s="97" t="s">
+      <c r="I94" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="J94" s="98"/>
-      <c r="K94" s="98"/>
+      <c r="J94" s="100"/>
+      <c r="K94" s="100"/>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="28"/>
@@ -4932,11 +4938,11 @@
       <c r="D95" s="49"/>
       <c r="E95" s="49"/>
       <c r="F95" s="49"/>
-      <c r="G95" s="76"/>
-      <c r="H95" s="97" t="s">
+      <c r="G95" s="78"/>
+      <c r="H95" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="I95" s="97" t="s">
+      <c r="I95" s="99" t="s">
         <v>180</v>
       </c>
       <c r="J95" s="15"/>
@@ -4949,11 +4955,11 @@
       <c r="D96" s="49"/>
       <c r="E96" s="49"/>
       <c r="F96" s="49"/>
-      <c r="G96" s="76"/>
-      <c r="H96" s="97" t="s">
+      <c r="G96" s="78"/>
+      <c r="H96" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="I96" s="97" t="s">
+      <c r="I96" s="99" t="s">
         <v>182</v>
       </c>
       <c r="J96" s="15"/>
@@ -4961,28 +4967,28 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="28"/>
-      <c r="B97" s="95"/>
-      <c r="C97" s="95"/>
-      <c r="D97" s="95"/>
-      <c r="E97" s="95"/>
-      <c r="F97" s="95"/>
-      <c r="G97" s="98"/>
-      <c r="H97" s="97" t="s">
+      <c r="B97" s="97"/>
+      <c r="C97" s="97"/>
+      <c r="D97" s="97"/>
+      <c r="E97" s="97"/>
+      <c r="F97" s="97"/>
+      <c r="G97" s="100"/>
+      <c r="H97" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="I97" s="97" t="s">
+      <c r="I97" s="99" t="s">
         <v>183</v>
       </c>
-      <c r="J97" s="98"/>
-      <c r="K97" s="98"/>
+      <c r="J97" s="100"/>
+      <c r="K97" s="100"/>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="28"/>
-      <c r="B98" s="74"/>
-      <c r="C98" s="74"/>
-      <c r="D98" s="74"/>
-      <c r="E98" s="74"/>
-      <c r="F98" s="74"/>
+      <c r="B98" s="75"/>
+      <c r="C98" s="75"/>
+      <c r="D98" s="75"/>
+      <c r="E98" s="75"/>
+      <c r="F98" s="75"/>
       <c r="G98" s="28"/>
       <c r="H98" s="28"/>
       <c r="I98" s="28"/>
@@ -4990,22 +4996,22 @@
       <c r="K98" s="28"/>
     </row>
     <row r="99" ht="43.2" spans="1:11">
-      <c r="A99" s="86" t="s">
+      <c r="A99" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B99" s="74" t="s">
+      <c r="B99" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="C99" s="74" t="s">
+      <c r="C99" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="D99" s="74" t="s">
+      <c r="D99" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="E99" s="74" t="s">
+      <c r="E99" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="F99" s="74" t="s">
+      <c r="F99" s="75" t="s">
         <v>186</v>
       </c>
       <c r="G99" s="28"/>
@@ -5018,113 +5024,113 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="28"/>
-      <c r="B100" s="74"/>
-      <c r="C100" s="74"/>
-      <c r="D100" s="74"/>
-      <c r="E100" s="74" t="s">
+      <c r="B100" s="75"/>
+      <c r="C100" s="75"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="F100" s="74" t="s">
+      <c r="F100" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="G100" s="93"/>
-      <c r="H100" s="94"/>
-      <c r="I100" s="94"/>
+      <c r="G100" s="95"/>
+      <c r="H100" s="96"/>
+      <c r="I100" s="96"/>
       <c r="J100" s="28"/>
       <c r="K100" s="28"/>
     </row>
     <row r="101" ht="28.8" spans="1:11">
       <c r="A101" s="28"/>
-      <c r="B101" s="74"/>
-      <c r="C101" s="74"/>
-      <c r="D101" s="74"/>
-      <c r="E101" s="74" t="s">
+      <c r="B101" s="75"/>
+      <c r="C101" s="75"/>
+      <c r="D101" s="75"/>
+      <c r="E101" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="F101" s="74" t="s">
+      <c r="F101" s="75" t="s">
         <v>190</v>
       </c>
-      <c r="G101" s="93"/>
-      <c r="H101" s="94"/>
-      <c r="I101" s="94"/>
+      <c r="G101" s="95"/>
+      <c r="H101" s="96"/>
+      <c r="I101" s="96"/>
       <c r="J101" s="28"/>
       <c r="K101" s="28"/>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="28"/>
-      <c r="B102" s="74"/>
-      <c r="C102" s="74"/>
-      <c r="D102" s="74"/>
-      <c r="E102" s="74" t="s">
+      <c r="B102" s="75"/>
+      <c r="C102" s="75"/>
+      <c r="D102" s="75"/>
+      <c r="E102" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="F102" s="74" t="s">
+      <c r="F102" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="G102" s="93"/>
-      <c r="H102" s="94"/>
-      <c r="I102" s="94"/>
+      <c r="G102" s="95"/>
+      <c r="H102" s="96"/>
+      <c r="I102" s="96"/>
       <c r="J102" s="28"/>
       <c r="K102" s="28"/>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="28"/>
-      <c r="B103" s="74"/>
-      <c r="C103" s="74"/>
-      <c r="D103" s="74"/>
-      <c r="E103" s="74" t="s">
+      <c r="B103" s="75"/>
+      <c r="C103" s="75"/>
+      <c r="D103" s="75"/>
+      <c r="E103" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="F103" s="74" t="s">
+      <c r="F103" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="G103" s="93"/>
-      <c r="H103" s="94"/>
-      <c r="I103" s="94"/>
+      <c r="G103" s="95"/>
+      <c r="H103" s="96"/>
+      <c r="I103" s="96"/>
       <c r="J103" s="28"/>
       <c r="K103" s="28"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="28"/>
-      <c r="B104" s="74"/>
-      <c r="C104" s="74"/>
-      <c r="D104" s="74"/>
-      <c r="E104" s="87" t="s">
+      <c r="B104" s="75"/>
+      <c r="C104" s="75"/>
+      <c r="D104" s="75"/>
+      <c r="E104" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="F104" s="74" t="s">
+      <c r="F104" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="G104" s="93"/>
-      <c r="H104" s="94"/>
-      <c r="I104" s="94"/>
+      <c r="G104" s="95"/>
+      <c r="H104" s="96"/>
+      <c r="I104" s="96"/>
       <c r="J104" s="28"/>
       <c r="K104" s="28"/>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="28"/>
-      <c r="B105" s="74"/>
-      <c r="C105" s="74"/>
-      <c r="D105" s="74"/>
-      <c r="E105" s="87" t="s">
+      <c r="B105" s="75"/>
+      <c r="C105" s="75"/>
+      <c r="D105" s="75"/>
+      <c r="E105" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="F105" s="87" t="s">
+      <c r="F105" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="G105" s="94"/>
-      <c r="H105" s="94"/>
-      <c r="I105" s="94"/>
+      <c r="G105" s="96"/>
+      <c r="H105" s="96"/>
+      <c r="I105" s="96"/>
       <c r="J105" s="28"/>
       <c r="K105" s="28"/>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="28"/>
-      <c r="B106" s="74"/>
-      <c r="C106" s="74"/>
-      <c r="D106" s="74"/>
-      <c r="E106" s="74"/>
-      <c r="F106" s="74"/>
+      <c r="B106" s="75"/>
+      <c r="C106" s="75"/>
+      <c r="D106" s="75"/>
+      <c r="E106" s="75"/>
+      <c r="F106" s="75"/>
       <c r="G106" s="28"/>
       <c r="H106" s="28"/>
       <c r="I106" s="28"/>
@@ -5132,29 +5138,29 @@
       <c r="K106" s="28"/>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="86" t="s">
+      <c r="A107" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B107" s="74" t="s">
+      <c r="B107" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="C107" s="74" t="s">
+      <c r="C107" s="75" t="s">
         <v>197</v>
       </c>
-      <c r="D107" s="74" t="s">
+      <c r="D107" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="E107" s="74" t="s">
+      <c r="E107" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="F107" s="74" t="s">
+      <c r="F107" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="G107" s="93"/>
-      <c r="H107" s="94">
+      <c r="G107" s="95"/>
+      <c r="H107" s="96">
         <v>0</v>
       </c>
-      <c r="I107" s="94" t="s">
+      <c r="I107" s="96" t="s">
         <v>16</v>
       </c>
       <c r="J107" s="28"/>
@@ -5162,13 +5168,13 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="28"/>
-      <c r="B108" s="74"/>
-      <c r="C108" s="74"/>
-      <c r="D108" s="74"/>
-      <c r="E108" s="74" t="s">
+      <c r="B108" s="75"/>
+      <c r="C108" s="75"/>
+      <c r="D108" s="75"/>
+      <c r="E108" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="F108" s="74" t="s">
+      <c r="F108" s="75" t="s">
         <v>193</v>
       </c>
       <c r="G108" s="28"/>
@@ -5183,13 +5189,13 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="28"/>
-      <c r="B109" s="74"/>
-      <c r="C109" s="74"/>
-      <c r="D109" s="74"/>
-      <c r="E109" s="74" t="s">
+      <c r="B109" s="75"/>
+      <c r="C109" s="75"/>
+      <c r="D109" s="75"/>
+      <c r="E109" s="75" t="s">
         <v>200</v>
       </c>
-      <c r="F109" s="74" t="s">
+      <c r="F109" s="75" t="s">
         <v>4</v>
       </c>
       <c r="G109" s="28"/>
@@ -5204,13 +5210,13 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="28"/>
-      <c r="B110" s="74"/>
-      <c r="C110" s="74"/>
-      <c r="D110" s="74"/>
-      <c r="E110" s="74" t="s">
+      <c r="B110" s="75"/>
+      <c r="C110" s="75"/>
+      <c r="D110" s="75"/>
+      <c r="E110" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="F110" s="74" t="s">
+      <c r="F110" s="75" t="s">
         <v>202</v>
       </c>
       <c r="G110" s="28"/>
@@ -5221,13 +5227,13 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="28"/>
-      <c r="B111" s="74"/>
-      <c r="C111" s="74"/>
-      <c r="D111" s="74"/>
-      <c r="E111" s="74" t="s">
+      <c r="B111" s="75"/>
+      <c r="C111" s="75"/>
+      <c r="D111" s="75"/>
+      <c r="E111" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="F111" s="74" t="s">
+      <c r="F111" s="75" t="s">
         <v>188</v>
       </c>
       <c r="G111" s="28"/>
@@ -5238,13 +5244,13 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="28"/>
-      <c r="B112" s="74"/>
-      <c r="C112" s="74"/>
-      <c r="D112" s="74"/>
-      <c r="E112" s="74" t="s">
+      <c r="B112" s="75"/>
+      <c r="C112" s="75"/>
+      <c r="D112" s="75"/>
+      <c r="E112" s="75" t="s">
         <v>203</v>
       </c>
-      <c r="F112" s="74" t="s">
+      <c r="F112" s="75" t="s">
         <v>204</v>
       </c>
       <c r="G112" s="28"/>
@@ -5255,13 +5261,13 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="28"/>
-      <c r="B113" s="74"/>
-      <c r="C113" s="74"/>
-      <c r="D113" s="74"/>
-      <c r="E113" s="74" t="s">
+      <c r="B113" s="75"/>
+      <c r="C113" s="75"/>
+      <c r="D113" s="75"/>
+      <c r="E113" s="75" t="s">
         <v>205</v>
       </c>
-      <c r="F113" s="74" t="s">
+      <c r="F113" s="75" t="s">
         <v>206</v>
       </c>
       <c r="G113" s="28"/>
@@ -5272,13 +5278,13 @@
     </row>
     <row r="114" ht="28.8" spans="1:11">
       <c r="A114" s="28"/>
-      <c r="B114" s="74"/>
-      <c r="C114" s="74"/>
-      <c r="D114" s="74"/>
-      <c r="E114" s="74" t="s">
+      <c r="B114" s="75"/>
+      <c r="C114" s="75"/>
+      <c r="D114" s="75"/>
+      <c r="E114" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="F114" s="74" t="s">
+      <c r="F114" s="75" t="s">
         <v>207</v>
       </c>
       <c r="G114" s="28"/>
@@ -5289,13 +5295,13 @@
     </row>
     <row r="115" ht="28.8" spans="1:11">
       <c r="A115" s="28"/>
-      <c r="B115" s="74"/>
-      <c r="C115" s="74"/>
-      <c r="D115" s="74"/>
-      <c r="E115" s="74" t="s">
+      <c r="B115" s="75"/>
+      <c r="C115" s="75"/>
+      <c r="D115" s="75"/>
+      <c r="E115" s="75" t="s">
         <v>208</v>
       </c>
-      <c r="F115" s="74" t="s">
+      <c r="F115" s="75" t="s">
         <v>209</v>
       </c>
       <c r="G115" s="28"/>
@@ -5306,13 +5312,13 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="28"/>
-      <c r="B116" s="74"/>
-      <c r="C116" s="74"/>
-      <c r="D116" s="74"/>
-      <c r="E116" s="74" t="s">
+      <c r="B116" s="75"/>
+      <c r="C116" s="75"/>
+      <c r="D116" s="75"/>
+      <c r="E116" s="75" t="s">
         <v>210</v>
       </c>
-      <c r="F116" s="74" t="s">
+      <c r="F116" s="75" t="s">
         <v>211</v>
       </c>
       <c r="G116" s="28"/>
@@ -5323,13 +5329,13 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="28"/>
-      <c r="B117" s="74"/>
-      <c r="C117" s="74"/>
-      <c r="D117" s="74"/>
-      <c r="E117" s="74" t="s">
+      <c r="B117" s="75"/>
+      <c r="C117" s="75"/>
+      <c r="D117" s="75"/>
+      <c r="E117" s="75" t="s">
         <v>212</v>
       </c>
-      <c r="F117" s="74" t="s">
+      <c r="F117" s="75" t="s">
         <v>213</v>
       </c>
       <c r="G117" s="28"/>
@@ -5340,13 +5346,13 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="28"/>
-      <c r="B118" s="74"/>
-      <c r="C118" s="74"/>
-      <c r="D118" s="74"/>
-      <c r="E118" s="74" t="s">
+      <c r="B118" s="75"/>
+      <c r="C118" s="75"/>
+      <c r="D118" s="75"/>
+      <c r="E118" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="F118" s="74" t="s">
+      <c r="F118" s="75" t="s">
         <v>152</v>
       </c>
       <c r="G118" s="28"/>
@@ -5357,13 +5363,13 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="28"/>
-      <c r="B119" s="74"/>
-      <c r="C119" s="74"/>
-      <c r="D119" s="74"/>
-      <c r="E119" s="74" t="s">
+      <c r="B119" s="75"/>
+      <c r="C119" s="75"/>
+      <c r="D119" s="75"/>
+      <c r="E119" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="F119" s="74" t="s">
+      <c r="F119" s="75" t="s">
         <v>150</v>
       </c>
       <c r="G119" s="28"/>
@@ -5374,13 +5380,13 @@
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="28"/>
-      <c r="B120" s="74"/>
-      <c r="C120" s="74"/>
-      <c r="D120" s="74"/>
-      <c r="E120" s="74" t="s">
+      <c r="B120" s="75"/>
+      <c r="C120" s="75"/>
+      <c r="D120" s="75"/>
+      <c r="E120" s="75" t="s">
         <v>214</v>
       </c>
-      <c r="F120" s="74" t="s">
+      <c r="F120" s="75" t="s">
         <v>215</v>
       </c>
       <c r="G120" s="28"/>
@@ -5391,13 +5397,13 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="28"/>
-      <c r="B121" s="74"/>
-      <c r="C121" s="74"/>
-      <c r="D121" s="74"/>
-      <c r="E121" s="74" t="s">
+      <c r="B121" s="75"/>
+      <c r="C121" s="75"/>
+      <c r="D121" s="75"/>
+      <c r="E121" s="75" t="s">
         <v>216</v>
       </c>
-      <c r="F121" s="74" t="s">
+      <c r="F121" s="75" t="s">
         <v>217</v>
       </c>
       <c r="G121" s="28"/>
@@ -5408,13 +5414,13 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="28"/>
-      <c r="B122" s="74"/>
-      <c r="C122" s="74"/>
-      <c r="D122" s="74"/>
-      <c r="E122" s="74" t="s">
+      <c r="B122" s="75"/>
+      <c r="C122" s="75"/>
+      <c r="D122" s="75"/>
+      <c r="E122" s="75" t="s">
         <v>218</v>
       </c>
-      <c r="F122" s="74" t="s">
+      <c r="F122" s="75" t="s">
         <v>18</v>
       </c>
       <c r="G122" s="28"/>
@@ -5425,11 +5431,11 @@
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="28"/>
-      <c r="B123" s="74"/>
-      <c r="C123" s="74"/>
-      <c r="D123" s="74"/>
-      <c r="E123" s="74"/>
-      <c r="F123" s="74"/>
+      <c r="B123" s="75"/>
+      <c r="C123" s="75"/>
+      <c r="D123" s="75"/>
+      <c r="E123" s="75"/>
+      <c r="F123" s="75"/>
       <c r="G123" s="28"/>
       <c r="H123" s="28"/>
       <c r="I123" s="28"/>
@@ -5437,24 +5443,24 @@
       <c r="K123" s="28"/>
     </row>
     <row r="124" ht="28.8" spans="1:11">
-      <c r="A124" s="86" t="s">
+      <c r="A124" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B124" s="74" t="s">
+      <c r="B124" s="75" t="s">
         <v>219</v>
       </c>
-      <c r="C124" s="74" t="s">
+      <c r="C124" s="75" t="s">
         <v>220</v>
       </c>
-      <c r="D124" s="74"/>
-      <c r="E124" s="87" t="s">
+      <c r="D124" s="75"/>
+      <c r="E124" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="F124" s="87" t="s">
+      <c r="F124" s="89" t="s">
         <v>221</v>
       </c>
-      <c r="G124" s="94"/>
-      <c r="H124" s="94" t="s">
+      <c r="G124" s="96"/>
+      <c r="H124" s="96" t="s">
         <v>222</v>
       </c>
       <c r="I124" s="28"/>
@@ -5463,32 +5469,32 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="28"/>
-      <c r="B125" s="74"/>
-      <c r="C125" s="74"/>
-      <c r="D125" s="74"/>
-      <c r="E125" s="74"/>
-      <c r="F125" s="74"/>
+      <c r="B125" s="75"/>
+      <c r="C125" s="75"/>
+      <c r="D125" s="75"/>
+      <c r="E125" s="75"/>
+      <c r="F125" s="75"/>
       <c r="I125" s="28"/>
       <c r="J125" s="28"/>
       <c r="K125" s="28"/>
     </row>
     <row r="126" ht="43.2" spans="1:11">
-      <c r="A126" s="86" t="s">
+      <c r="A126" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B126" s="74" t="s">
+      <c r="B126" s="75" t="s">
         <v>223</v>
       </c>
-      <c r="C126" s="74" t="s">
+      <c r="C126" s="75" t="s">
         <v>224</v>
       </c>
-      <c r="D126" s="74" t="s">
+      <c r="D126" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="E126" s="74" t="s">
+      <c r="E126" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="F126" s="74" t="s">
+      <c r="F126" s="75" t="s">
         <v>186</v>
       </c>
       <c r="G126" s="28"/>
@@ -5501,147 +5507,147 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="28"/>
-      <c r="B127" s="74"/>
-      <c r="C127" s="74"/>
-      <c r="D127" s="74"/>
-      <c r="E127" s="74" t="s">
+      <c r="B127" s="75"/>
+      <c r="C127" s="75"/>
+      <c r="D127" s="75"/>
+      <c r="E127" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="F127" s="74" t="s">
+      <c r="F127" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="G127" s="93"/>
-      <c r="H127" s="94"/>
-      <c r="I127" s="94"/>
+      <c r="G127" s="95"/>
+      <c r="H127" s="96"/>
+      <c r="I127" s="96"/>
       <c r="J127" s="28"/>
       <c r="K127" s="28"/>
     </row>
     <row r="128" ht="28.8" spans="1:11">
       <c r="A128" s="28"/>
-      <c r="B128" s="74"/>
-      <c r="C128" s="74"/>
-      <c r="D128" s="74"/>
-      <c r="E128" s="74" t="s">
+      <c r="B128" s="75"/>
+      <c r="C128" s="75"/>
+      <c r="D128" s="75"/>
+      <c r="E128" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="F128" s="74" t="s">
+      <c r="F128" s="75" t="s">
         <v>190</v>
       </c>
-      <c r="G128" s="93"/>
-      <c r="H128" s="94"/>
-      <c r="I128" s="94"/>
+      <c r="G128" s="95"/>
+      <c r="H128" s="96"/>
+      <c r="I128" s="96"/>
       <c r="J128" s="28"/>
       <c r="K128" s="28"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="28"/>
-      <c r="B129" s="74"/>
-      <c r="C129" s="74"/>
-      <c r="D129" s="74"/>
-      <c r="E129" s="74" t="s">
+      <c r="B129" s="75"/>
+      <c r="C129" s="75"/>
+      <c r="D129" s="75"/>
+      <c r="E129" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="F129" s="74" t="s">
+      <c r="F129" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="G129" s="93"/>
-      <c r="H129" s="94"/>
-      <c r="I129" s="94"/>
+      <c r="G129" s="95"/>
+      <c r="H129" s="96"/>
+      <c r="I129" s="96"/>
       <c r="J129" s="28"/>
       <c r="K129" s="28"/>
     </row>
     <row r="130" ht="28.8" spans="1:11">
       <c r="A130" s="28"/>
-      <c r="B130" s="74"/>
-      <c r="C130" s="74"/>
-      <c r="D130" s="74"/>
-      <c r="E130" s="74" t="s">
+      <c r="B130" s="75"/>
+      <c r="C130" s="75"/>
+      <c r="D130" s="75"/>
+      <c r="E130" s="75" t="s">
         <v>225</v>
       </c>
-      <c r="F130" s="74" t="s">
+      <c r="F130" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="G130" s="93"/>
-      <c r="H130" s="94"/>
-      <c r="I130" s="94"/>
+      <c r="G130" s="95"/>
+      <c r="H130" s="96"/>
+      <c r="I130" s="96"/>
       <c r="J130" s="28"/>
       <c r="K130" s="28"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="28"/>
-      <c r="B131" s="74"/>
-      <c r="C131" s="74"/>
-      <c r="D131" s="74"/>
-      <c r="E131" s="74" t="s">
+      <c r="B131" s="75"/>
+      <c r="C131" s="75"/>
+      <c r="D131" s="75"/>
+      <c r="E131" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="F131" s="74" t="s">
+      <c r="F131" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="G131" s="93"/>
-      <c r="H131" s="94"/>
-      <c r="I131" s="94"/>
+      <c r="G131" s="95"/>
+      <c r="H131" s="96"/>
+      <c r="I131" s="96"/>
       <c r="J131" s="28"/>
       <c r="K131" s="28"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="28"/>
-      <c r="B132" s="74"/>
-      <c r="C132" s="74"/>
-      <c r="D132" s="74"/>
-      <c r="E132" s="87" t="s">
+      <c r="B132" s="75"/>
+      <c r="C132" s="75"/>
+      <c r="D132" s="75"/>
+      <c r="E132" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="F132" s="74" t="s">
+      <c r="F132" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="G132" s="93"/>
-      <c r="H132" s="94"/>
-      <c r="I132" s="94"/>
+      <c r="G132" s="95"/>
+      <c r="H132" s="96"/>
+      <c r="I132" s="96"/>
       <c r="J132" s="28"/>
       <c r="K132" s="28"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="28"/>
-      <c r="B133" s="74"/>
-      <c r="C133" s="74"/>
-      <c r="D133" s="74"/>
-      <c r="E133" s="87" t="s">
+      <c r="B133" s="75"/>
+      <c r="C133" s="75"/>
+      <c r="D133" s="75"/>
+      <c r="E133" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="F133" s="87" t="s">
+      <c r="F133" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="G133" s="94"/>
-      <c r="H133" s="94"/>
-      <c r="I133" s="94"/>
+      <c r="G133" s="96"/>
+      <c r="H133" s="96"/>
+      <c r="I133" s="96"/>
       <c r="J133" s="28"/>
       <c r="K133" s="28"/>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" s="86" t="s">
+      <c r="A134" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B134" s="74" t="s">
+      <c r="B134" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="C134" s="74" t="s">
+      <c r="C134" s="75" t="s">
         <v>228</v>
       </c>
-      <c r="D134" s="74" t="s">
+      <c r="D134" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="E134" s="74" t="s">
+      <c r="E134" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="F134" s="74" t="s">
+      <c r="F134" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="G134" s="93"/>
-      <c r="H134" s="94">
+      <c r="G134" s="95"/>
+      <c r="H134" s="96">
         <v>0</v>
       </c>
-      <c r="I134" s="94" t="s">
+      <c r="I134" s="96" t="s">
         <v>16</v>
       </c>
       <c r="J134" s="28"/>
@@ -5649,13 +5655,13 @@
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="28"/>
-      <c r="B135" s="74"/>
-      <c r="C135" s="74"/>
-      <c r="D135" s="74"/>
-      <c r="E135" s="74" t="s">
+      <c r="B135" s="75"/>
+      <c r="C135" s="75"/>
+      <c r="D135" s="75"/>
+      <c r="E135" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="F135" s="74" t="s">
+      <c r="F135" s="75" t="s">
         <v>193</v>
       </c>
       <c r="G135" s="28"/>
@@ -5670,13 +5676,13 @@
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="28"/>
-      <c r="B136" s="74"/>
-      <c r="C136" s="74"/>
-      <c r="D136" s="74"/>
-      <c r="E136" s="74" t="s">
+      <c r="B136" s="75"/>
+      <c r="C136" s="75"/>
+      <c r="D136" s="75"/>
+      <c r="E136" s="75" t="s">
         <v>200</v>
       </c>
-      <c r="F136" s="74" t="s">
+      <c r="F136" s="75" t="s">
         <v>4</v>
       </c>
       <c r="G136" s="28"/>
@@ -5691,13 +5697,13 @@
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="28"/>
-      <c r="B137" s="74"/>
-      <c r="C137" s="74"/>
-      <c r="D137" s="74"/>
-      <c r="E137" s="74" t="s">
+      <c r="B137" s="75"/>
+      <c r="C137" s="75"/>
+      <c r="D137" s="75"/>
+      <c r="E137" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="F137" s="74" t="s">
+      <c r="F137" s="75" t="s">
         <v>202</v>
       </c>
       <c r="G137" s="28"/>
@@ -5708,13 +5714,13 @@
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="28"/>
-      <c r="B138" s="74"/>
-      <c r="C138" s="74"/>
-      <c r="D138" s="74"/>
-      <c r="E138" s="74" t="s">
+      <c r="B138" s="75"/>
+      <c r="C138" s="75"/>
+      <c r="D138" s="75"/>
+      <c r="E138" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="F138" s="74" t="s">
+      <c r="F138" s="75" t="s">
         <v>188</v>
       </c>
       <c r="G138" s="28"/>
@@ -5725,13 +5731,13 @@
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="28"/>
-      <c r="B139" s="74"/>
-      <c r="C139" s="74"/>
-      <c r="D139" s="74"/>
-      <c r="E139" s="74" t="s">
+      <c r="B139" s="75"/>
+      <c r="C139" s="75"/>
+      <c r="D139" s="75"/>
+      <c r="E139" s="75" t="s">
         <v>203</v>
       </c>
-      <c r="F139" s="74" t="s">
+      <c r="F139" s="75" t="s">
         <v>204</v>
       </c>
       <c r="G139" s="28"/>
@@ -5742,13 +5748,13 @@
     </row>
     <row r="140" ht="28.8" spans="1:11">
       <c r="A140" s="28"/>
-      <c r="B140" s="74"/>
-      <c r="C140" s="74"/>
-      <c r="D140" s="74"/>
-      <c r="E140" s="74" t="s">
+      <c r="B140" s="75"/>
+      <c r="C140" s="75"/>
+      <c r="D140" s="75"/>
+      <c r="E140" s="75" t="s">
         <v>225</v>
       </c>
-      <c r="F140" s="74" t="s">
+      <c r="F140" s="75" t="s">
         <v>229</v>
       </c>
       <c r="G140" s="28"/>
@@ -5759,13 +5765,13 @@
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="28"/>
-      <c r="B141" s="74"/>
-      <c r="C141" s="74"/>
-      <c r="D141" s="74"/>
-      <c r="E141" s="74" t="s">
+      <c r="B141" s="75"/>
+      <c r="C141" s="75"/>
+      <c r="D141" s="75"/>
+      <c r="E141" s="75" t="s">
         <v>205</v>
       </c>
-      <c r="F141" s="74" t="s">
+      <c r="F141" s="75" t="s">
         <v>206</v>
       </c>
       <c r="G141" s="28"/>
@@ -5776,13 +5782,13 @@
     </row>
     <row r="142" ht="28.8" spans="1:11">
       <c r="A142" s="28"/>
-      <c r="B142" s="74"/>
-      <c r="C142" s="74"/>
-      <c r="D142" s="74"/>
-      <c r="E142" s="74" t="s">
+      <c r="B142" s="75"/>
+      <c r="C142" s="75"/>
+      <c r="D142" s="75"/>
+      <c r="E142" s="75" t="s">
         <v>208</v>
       </c>
-      <c r="F142" s="74" t="s">
+      <c r="F142" s="75" t="s">
         <v>209</v>
       </c>
       <c r="G142" s="28"/>
@@ -5793,13 +5799,13 @@
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="28"/>
-      <c r="B143" s="74"/>
-      <c r="C143" s="74"/>
-      <c r="D143" s="74"/>
-      <c r="E143" s="74" t="s">
+      <c r="B143" s="75"/>
+      <c r="C143" s="75"/>
+      <c r="D143" s="75"/>
+      <c r="E143" s="75" t="s">
         <v>210</v>
       </c>
-      <c r="F143" s="74" t="s">
+      <c r="F143" s="75" t="s">
         <v>211</v>
       </c>
       <c r="G143" s="28"/>
@@ -5810,13 +5816,13 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="28"/>
-      <c r="B144" s="74"/>
-      <c r="C144" s="74"/>
-      <c r="D144" s="74"/>
-      <c r="E144" s="74" t="s">
+      <c r="B144" s="75"/>
+      <c r="C144" s="75"/>
+      <c r="D144" s="75"/>
+      <c r="E144" s="75" t="s">
         <v>212</v>
       </c>
-      <c r="F144" s="74" t="s">
+      <c r="F144" s="75" t="s">
         <v>213</v>
       </c>
       <c r="G144" s="28"/>
@@ -5827,13 +5833,13 @@
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="28"/>
-      <c r="B145" s="74"/>
-      <c r="C145" s="74"/>
-      <c r="D145" s="74"/>
-      <c r="E145" s="74" t="s">
+      <c r="B145" s="75"/>
+      <c r="C145" s="75"/>
+      <c r="D145" s="75"/>
+      <c r="E145" s="75" t="s">
         <v>230</v>
       </c>
-      <c r="F145" s="74" t="s">
+      <c r="F145" s="75" t="s">
         <v>152</v>
       </c>
       <c r="G145" s="28"/>
@@ -5844,13 +5850,13 @@
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="28"/>
-      <c r="B146" s="74"/>
-      <c r="C146" s="74"/>
-      <c r="D146" s="74"/>
-      <c r="E146" s="74" t="s">
+      <c r="B146" s="75"/>
+      <c r="C146" s="75"/>
+      <c r="D146" s="75"/>
+      <c r="E146" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="F146" s="74" t="s">
+      <c r="F146" s="75" t="s">
         <v>150</v>
       </c>
       <c r="G146" s="28"/>
@@ -5861,13 +5867,13 @@
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="28"/>
-      <c r="B147" s="74"/>
-      <c r="C147" s="74"/>
-      <c r="D147" s="74"/>
-      <c r="E147" s="74" t="s">
+      <c r="B147" s="75"/>
+      <c r="C147" s="75"/>
+      <c r="D147" s="75"/>
+      <c r="E147" s="75" t="s">
         <v>214</v>
       </c>
-      <c r="F147" s="74" t="s">
+      <c r="F147" s="75" t="s">
         <v>215</v>
       </c>
       <c r="G147" s="28"/>
@@ -5878,13 +5884,13 @@
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="28"/>
-      <c r="B148" s="74"/>
-      <c r="C148" s="74"/>
-      <c r="D148" s="74"/>
-      <c r="E148" s="74" t="s">
+      <c r="B148" s="75"/>
+      <c r="C148" s="75"/>
+      <c r="D148" s="75"/>
+      <c r="E148" s="75" t="s">
         <v>216</v>
       </c>
-      <c r="F148" s="74" t="s">
+      <c r="F148" s="75" t="s">
         <v>217</v>
       </c>
       <c r="G148" s="28"/>
@@ -5895,13 +5901,13 @@
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="28"/>
-      <c r="B149" s="74"/>
-      <c r="C149" s="74"/>
-      <c r="D149" s="74"/>
-      <c r="E149" s="74" t="s">
+      <c r="B149" s="75"/>
+      <c r="C149" s="75"/>
+      <c r="D149" s="75"/>
+      <c r="E149" s="75" t="s">
         <v>218</v>
       </c>
-      <c r="F149" s="74" t="s">
+      <c r="F149" s="75" t="s">
         <v>18</v>
       </c>
       <c r="G149" s="28"/>
@@ -5911,24 +5917,24 @@
       <c r="K149" s="28"/>
     </row>
     <row r="150" ht="28.8" spans="1:11">
-      <c r="A150" s="86" t="s">
+      <c r="A150" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B150" s="74" t="s">
+      <c r="B150" s="75" t="s">
         <v>232</v>
       </c>
-      <c r="C150" s="74" t="s">
+      <c r="C150" s="75" t="s">
         <v>233</v>
       </c>
-      <c r="D150" s="74"/>
-      <c r="E150" s="87" t="s">
+      <c r="D150" s="75"/>
+      <c r="E150" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="F150" s="87" t="s">
+      <c r="F150" s="89" t="s">
         <v>221</v>
       </c>
-      <c r="G150" s="94"/>
-      <c r="H150" s="94" t="s">
+      <c r="G150" s="96"/>
+      <c r="H150" s="96" t="s">
         <v>234</v>
       </c>
       <c r="I150" s="28"/>
@@ -5937,11 +5943,11 @@
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="28"/>
-      <c r="B151" s="74"/>
-      <c r="C151" s="74"/>
-      <c r="D151" s="74"/>
-      <c r="E151" s="74"/>
-      <c r="F151" s="74"/>
+      <c r="B151" s="75"/>
+      <c r="C151" s="75"/>
+      <c r="D151" s="75"/>
+      <c r="E151" s="75"/>
+      <c r="F151" s="75"/>
       <c r="G151" s="28"/>
       <c r="H151" s="28"/>
       <c r="I151" s="28"/>
@@ -5950,11 +5956,11 @@
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="28"/>
-      <c r="B152" s="74"/>
-      <c r="C152" s="74"/>
-      <c r="D152" s="74"/>
-      <c r="E152" s="74"/>
-      <c r="F152" s="74"/>
+      <c r="B152" s="75"/>
+      <c r="C152" s="75"/>
+      <c r="D152" s="75"/>
+      <c r="E152" s="75"/>
+      <c r="F152" s="75"/>
       <c r="G152" s="28"/>
       <c r="H152" s="28"/>
       <c r="I152" s="28"/>
@@ -5963,11 +5969,11 @@
     </row>
     <row r="153" s="4" customFormat="1" spans="1:11">
       <c r="A153" s="33"/>
-      <c r="B153" s="89"/>
-      <c r="C153" s="89"/>
-      <c r="D153" s="89"/>
-      <c r="E153" s="89"/>
-      <c r="F153" s="89"/>
+      <c r="B153" s="91"/>
+      <c r="C153" s="91"/>
+      <c r="D153" s="91"/>
+      <c r="E153" s="91"/>
+      <c r="F153" s="91"/>
       <c r="G153" s="33"/>
       <c r="H153" s="33"/>
       <c r="I153" s="33"/>
@@ -5976,11 +5982,11 @@
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="28"/>
-      <c r="B154" s="74"/>
-      <c r="C154" s="74"/>
-      <c r="D154" s="74"/>
-      <c r="E154" s="74"/>
-      <c r="F154" s="74"/>
+      <c r="B154" s="75"/>
+      <c r="C154" s="75"/>
+      <c r="D154" s="75"/>
+      <c r="E154" s="75"/>
+      <c r="F154" s="75"/>
       <c r="G154" s="28"/>
       <c r="H154" s="28"/>
       <c r="I154" s="28"/>
@@ -5989,11 +5995,11 @@
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="28"/>
-      <c r="B155" s="74"/>
-      <c r="C155" s="74"/>
-      <c r="D155" s="74"/>
-      <c r="E155" s="74"/>
-      <c r="F155" s="74"/>
+      <c r="B155" s="75"/>
+      <c r="C155" s="75"/>
+      <c r="D155" s="75"/>
+      <c r="E155" s="75"/>
+      <c r="F155" s="75"/>
       <c r="G155" s="28"/>
       <c r="H155" s="28"/>
       <c r="I155" s="28"/>
@@ -6002,11 +6008,11 @@
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="28"/>
-      <c r="B156" s="74"/>
-      <c r="C156" s="74"/>
-      <c r="D156" s="74"/>
-      <c r="E156" s="74"/>
-      <c r="F156" s="74"/>
+      <c r="B156" s="75"/>
+      <c r="C156" s="75"/>
+      <c r="D156" s="75"/>
+      <c r="E156" s="75"/>
+      <c r="F156" s="75"/>
       <c r="G156" s="28"/>
       <c r="H156" s="28"/>
       <c r="I156" s="28"/>
@@ -6015,11 +6021,11 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="28"/>
-      <c r="B157" s="74"/>
-      <c r="C157" s="74"/>
-      <c r="D157" s="74"/>
-      <c r="E157" s="74"/>
-      <c r="F157" s="74"/>
+      <c r="B157" s="75"/>
+      <c r="C157" s="75"/>
+      <c r="D157" s="75"/>
+      <c r="E157" s="75"/>
+      <c r="F157" s="75"/>
       <c r="G157" s="28"/>
       <c r="H157" s="28"/>
       <c r="I157" s="28"/>
@@ -6028,11 +6034,11 @@
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="28"/>
-      <c r="B158" s="74"/>
-      <c r="C158" s="74"/>
-      <c r="D158" s="74"/>
-      <c r="E158" s="74"/>
-      <c r="F158" s="74"/>
+      <c r="B158" s="75"/>
+      <c r="C158" s="75"/>
+      <c r="D158" s="75"/>
+      <c r="E158" s="75"/>
+      <c r="F158" s="75"/>
       <c r="G158" s="28"/>
       <c r="H158" s="28"/>
       <c r="I158" s="28"/>
@@ -6116,7 +6122,7 @@
   <sheetPr/>
   <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A64" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H132" sqref="H132"/>
     </sheetView>
   </sheetViews>
@@ -8001,8 +8007,8 @@
   <sheetPr/>
   <dimension ref="A1:D338"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A51" sqref="$A51:$XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/src/sql/HouseCD接口文档0.1.xlsx
+++ b/src/sql/HouseCD接口文档0.1.xlsx
@@ -6105,10 +6105,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K128"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119:D122"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4"/>
@@ -7968,6 +7968,19 @@
       <c r="I128" s="55"/>
       <c r="J128" s="55"/>
       <c r="K128" s="57"/>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="55"/>
+      <c r="B129" s="55"/>
+      <c r="C129" s="55"/>
+      <c r="D129" s="56"/>
+      <c r="E129" s="55"/>
+      <c r="F129" s="55"/>
+      <c r="G129" s="55"/>
+      <c r="H129" s="55"/>
+      <c r="I129" s="55"/>
+      <c r="J129" s="55"/>
+      <c r="K129" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="57">

--- a/src/sql/HouseCD接口文档0.1.xlsx
+++ b/src/sql/HouseCD接口文档0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347" activeTab="1"/>
+    <workbookView windowWidth="22488" windowHeight="9347" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="小程序" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="564">
   <si>
     <t>URL地址</t>
   </si>
@@ -458,9 +458,6 @@
     <t>houses_info集合</t>
   </si>
   <si>
-    <t>TODO</t>
-  </si>
-  <si>
     <t>楼盘-新房-(区域/价格/筛选)</t>
   </si>
   <si>
@@ -471,23 +468,42 @@
   </si>
   <si>
     <t>houses集合
- -house
 ...</t>
   </si>
   <si>
+    <t>sumPrice</t>
+  </si>
+  <si>
     <t>总价</t>
   </si>
   <si>
-    <t>avgPrice</t>
+    <t>avgPrice-maxPrice</t>
   </si>
   <si>
     <t>单价</t>
   </si>
   <si>
-    <t>户型</t>
-  </si>
-  <si>
-    <t>装修</t>
+    <t>bigTOSmall/
+smallTOBig</t>
+  </si>
+  <si>
+    <t>排序bigTOSmall:1,
+smallTOBig:1</t>
+  </si>
+  <si>
+    <t>housesType</t>
+  </si>
+  <si>
+    <t>户型:户型表</t>
+  </si>
+  <si>
+    <t>fitment</t>
+  </si>
+  <si>
+    <t>装修：毛坯 ，简装，精装</t>
+  </si>
+  <si>
+    <t>areaJ</t>
   </si>
   <si>
     <t>面积</t>
@@ -496,9 +512,15 @@
     <t>开盘时间</t>
   </si>
   <si>
+    <t>houseState</t>
+  </si>
+  <si>
     <t>售卖状况</t>
   </si>
   <si>
+    <t>housesSpclty</t>
+  </si>
+  <si>
     <t>特色</t>
   </si>
   <si>
@@ -514,21 +536,69 @@
     <t>楼盘动态</t>
   </si>
   <si>
+    <t>house_dynamic(集合)</t>
+  </si>
+  <si>
     <t>楼盘下户型查看</t>
   </si>
   <si>
+    <t>house_type(集合)</t>
+  </si>
+  <si>
     <t>楼盘配套设施</t>
   </si>
   <si>
+    <t>houses_facilities(集合)</t>
+  </si>
+  <si>
     <t>楼盘特点</t>
   </si>
   <si>
+    <t>houses_spclty(集合)</t>
+  </si>
+  <si>
     <t>楼盘图片</t>
   </si>
   <si>
+    <t>houses_picture(集合)</t>
+  </si>
+  <si>
     <t>在售新房</t>
   </si>
   <si>
+    <t>newHouse(集合)</t>
+  </si>
+  <si>
+    <t>(辅助查询)</t>
+  </si>
+  <si>
+    <t>户型查询</t>
+  </si>
+  <si>
+    <t>/houses/queryhouseType</t>
+  </si>
+  <si>
+    <t>(无需参数)</t>
+  </si>
+  <si>
+    <t>户型集合</t>
+  </si>
+  <si>
+    <t>区域查询</t>
+  </si>
+  <si>
+    <t>区域集合</t>
+  </si>
+  <si>
+    <t>特点查询</t>
+  </si>
+  <si>
+    <t>/houses/querySpclty</t>
+  </si>
+  <si>
+    <t>特点集合</t>
+  </si>
+  <si>
     <t>预约看房</t>
   </si>
   <si>
@@ -562,60 +632,54 @@
     <t>二手房查询（加条件筛选）</t>
   </si>
   <si>
-    <t>sortWay</t>
-  </si>
-  <si>
-    <t>排序：0，默认排序  1，从高到低  2，从低到高</t>
-  </si>
-  <si>
     <t>houseTypeId</t>
   </si>
   <si>
+    <t>户型(写死)</t>
+  </si>
+  <si>
+    <t>houseFixType</t>
+  </si>
+  <si>
+    <t>houseSize</t>
+  </si>
+  <si>
+    <t>houseArea</t>
+  </si>
+  <si>
+    <t>区域</t>
+  </si>
+  <si>
+    <t>houseAvmPrice</t>
+  </si>
+  <si>
+    <t>houseTolPrice</t>
+  </si>
+  <si>
+    <t>发布二手房</t>
+  </si>
+  <si>
+    <t>/house/addSecond</t>
+  </si>
+  <si>
+    <t>houseName</t>
+  </si>
+  <si>
+    <t>二手房标题</t>
+  </si>
+  <si>
+    <t>houseAddress</t>
+  </si>
+  <si>
+    <t>housePlot</t>
+  </si>
+  <si>
+    <t>房屋面积</t>
+  </si>
+  <si>
     <t>户型：eg三室一厅</t>
   </si>
   <si>
-    <t>houseFixType</t>
-  </si>
-  <si>
-    <t>装修：0不限，1毛坯 ，2简装，3精装</t>
-  </si>
-  <si>
-    <t>houseSize</t>
-  </si>
-  <si>
-    <t>houseArea</t>
-  </si>
-  <si>
-    <t>区域</t>
-  </si>
-  <si>
-    <t>houseAvmPrice</t>
-  </si>
-  <si>
-    <t>houseTolPrice</t>
-  </si>
-  <si>
-    <t>发布二手房</t>
-  </si>
-  <si>
-    <t>/house/addSecondHouse</t>
-  </si>
-  <si>
-    <t>houseName</t>
-  </si>
-  <si>
-    <t>二手房标题</t>
-  </si>
-  <si>
-    <t>houseAddress</t>
-  </si>
-  <si>
-    <t>housePlot</t>
-  </si>
-  <si>
-    <t>房屋面积</t>
-  </si>
-  <si>
     <t>houseFloor</t>
   </si>
   <si>
@@ -628,13 +692,13 @@
     <t>朝向</t>
   </si>
   <si>
-    <t>装修类型：0毛坯 1简装、2精装</t>
+    <t>装修类型：毛坯 ，简装，精装</t>
   </si>
   <si>
     <t>houseType</t>
   </si>
   <si>
-    <t>类型：0住宅、1公寓、2商铺</t>
+    <t>类型：住宅、公寓、商铺</t>
   </si>
   <si>
     <t>houseStyleId</t>
@@ -667,15 +731,9 @@
     <t>我发布的二手房</t>
   </si>
   <si>
-    <t>/house/querySecondsByUserId</t>
-  </si>
-  <si>
     <t>发布者ID</t>
   </si>
   <si>
-    <t>同二手房查询详情</t>
-  </si>
-  <si>
     <t>租房详情+条件下筛选</t>
   </si>
   <si>
@@ -685,7 +743,7 @@
     <t>rentType</t>
   </si>
   <si>
-    <t>租房类型：0整租 1合租 2 不限</t>
+    <t xml:space="preserve">租房类型：整租 合租 </t>
   </si>
   <si>
     <t>发布租房</t>
@@ -694,7 +752,7 @@
     <t>/house/addRentHouse</t>
   </si>
   <si>
-    <t>租房类型：0整租 1合租</t>
+    <t>租房类型：整租 合租</t>
   </si>
   <si>
     <t>houseMonPrice</t>
@@ -839,9 +897,6 @@
     <t>/*用户表*/</t>
   </si>
   <si>
-    <t>CREATE TABLE housecd.app_info(</t>
-  </si>
-  <si>
     <t xml:space="preserve">  userId </t>
   </si>
   <si>
@@ -911,15 +966,9 @@
     <t xml:space="preserve">   COMMENT '更新时间'</t>
   </si>
   <si>
-    <t>) ENGINE=INNODB AUTO_INCREMENT=1000000 DEFAULT CHARSET=utf8;</t>
-  </si>
-  <si>
     <t>/*银行卡信息表 */</t>
   </si>
   <si>
-    <t>CREATE TABLE housecd.bank_info(</t>
-  </si>
-  <si>
     <t xml:space="preserve">  cardId</t>
   </si>
   <si>
@@ -956,15 +1005,9 @@
     <t xml:space="preserve">  TIMESTAMP    COMMENT '创建时间',</t>
   </si>
   <si>
-    <t>)ENGINE=INNODB AUTO_INCREMENT=1000000 DEFAULT CHARSET=utf8;</t>
-  </si>
-  <si>
     <t>/*推荐表*/</t>
   </si>
   <si>
-    <t>CREATE TABLE housecd.recommend(</t>
-  </si>
-  <si>
     <t xml:space="preserve">  id </t>
   </si>
   <si>
@@ -1010,15 +1053,9 @@
     <t xml:space="preserve">  COMMENT '更新时间'</t>
   </si>
   <si>
-    <t>) ENGINE=INNODB AUTO_INCREMENT=1000 DEFAULT CHARSET=utf8;</t>
-  </si>
-  <si>
     <t>/*佣金表*/</t>
   </si>
   <si>
-    <t>CREATE TABLE housecd.brokerage(</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -1073,15 +1110,9 @@
     <t xml:space="preserve">   COMMENT '是否已读:1.未读 2.已读',</t>
   </si>
   <si>
-    <t>)ENGINE=INNODB AUTO_INCREMENT=1000 DEFAULT CHARSET=utf8;</t>
-  </si>
-  <si>
     <t>/*佣金参数表：（针对楼盘设置参数）*/</t>
   </si>
   <si>
-    <t>CREATE TABLE housecd.brokerage_param(</t>
-  </si>
-  <si>
     <t xml:space="preserve">   INT NOT NULL PRIMARY KEY AUTO_INCREMENT,</t>
   </si>
   <si>
@@ -1130,9 +1161,6 @@
     <t>/*销售表*/</t>
   </si>
   <si>
-    <t>CREATE TABLE housecd.sell(</t>
-  </si>
-  <si>
     <t xml:space="preserve">  userBsId </t>
   </si>
   <si>
@@ -1226,9 +1254,6 @@
     <t>/*客户表*/</t>
   </si>
   <si>
-    <t>CREATE TABLE housecd.guest(</t>
-  </si>
-  <si>
     <t xml:space="preserve">  guestId      INT NOT NULL PRIMARY KEY AUTO_INCREMENT,</t>
   </si>
   <si>
@@ -1241,9 +1266,6 @@
     <t>/*区域表 */</t>
   </si>
   <si>
-    <t>CREATE TABLE housecd.area(</t>
-  </si>
-  <si>
     <t xml:space="preserve">  areaId</t>
   </si>
   <si>
@@ -1259,9 +1281,6 @@
     <t>/*广告表 */</t>
   </si>
   <si>
-    <t>CREATE TABLE housecd.advertising(</t>
-  </si>
-  <si>
     <t xml:space="preserve"> adId </t>
   </si>
   <si>
@@ -1292,9 +1311,6 @@
     <t>/*资讯表 */</t>
   </si>
   <si>
-    <t>CREATE TABLE housecd.houses_info(</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Id </t>
   </si>
   <si>
@@ -1322,9 +1338,6 @@
     <t>/*标签表 一个ID允许多个标签*/</t>
   </si>
   <si>
-    <t>CREATE TABLE housecd.lable(</t>
-  </si>
-  <si>
     <t xml:space="preserve"> lableId</t>
   </si>
   <si>
@@ -1340,9 +1353,6 @@
     <t>/* 楼盘表 */</t>
   </si>
   <si>
-    <t>CREATE TABLE housecd.houses(</t>
-  </si>
-  <si>
     <t xml:space="preserve"> housesId</t>
   </si>
   <si>
@@ -1457,9 +1467,6 @@
     <t>/*楼盘商务关系表 (舍弃 ,楼盘表添加 驻点商务ID)*/</t>
   </si>
   <si>
-    <t>CREATE TABLE houses_user(</t>
-  </si>
-  <si>
     <t>housesId     VARCHAR(255)  COMMENT '楼盘ID',</t>
   </si>
   <si>
@@ -1484,9 +1491,6 @@
     <t>/*楼盘特点 一个ID允许多个标签*/</t>
   </si>
   <si>
-    <t>CREATE TABLE housecd.houses_spclty(</t>
-  </si>
-  <si>
     <t xml:space="preserve">  VARCHAR(255) COMMENT '楼盘特点id',</t>
   </si>
   <si>
@@ -1496,9 +1500,6 @@
     <t>/*楼盘图片地址表 一个ID允许多个标签*/</t>
   </si>
   <si>
-    <t>CREATE TABLE housecd.houses_picture(</t>
-  </si>
-  <si>
     <t xml:space="preserve">  VARCHAR(255) COMMENT '图片地址id',</t>
   </si>
   <si>
@@ -1508,18 +1509,12 @@
     <t>/*楼盘配套设施表 一个ID允许多个标签*/</t>
   </si>
   <si>
-    <t>CREATE TABLE housecd.houses_facilities(</t>
-  </si>
-  <si>
     <t xml:space="preserve">  VARCHAR(255) COMMENT '配套设置id',</t>
   </si>
   <si>
     <t xml:space="preserve"> /*户型表 */</t>
   </si>
   <si>
-    <t xml:space="preserve"> CREATE TABLE housecd.house_type(</t>
-  </si>
-  <si>
     <t xml:space="preserve"> houseTypeId</t>
   </si>
   <si>
@@ -1556,15 +1551,9 @@
     <t xml:space="preserve">  COMMENT '创建时间',</t>
   </si>
   <si>
-    <t xml:space="preserve"> )ENGINE=INNODB AUTO_INCREMENT=1000000 DEFAULT CHARSET=utf8;</t>
-  </si>
-  <si>
     <t>/*新房表 */</t>
   </si>
   <si>
-    <t>CREATE TABLE housecd.newHouse(</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Id</t>
   </si>
   <si>
@@ -1592,9 +1581,6 @@
     <t>/* 二手房表 */</t>
   </si>
   <si>
-    <t>CREATE TABLE housecd.second_hand_house(</t>
-  </si>
-  <si>
     <t xml:space="preserve"> secondHouseId</t>
   </si>
   <si>
@@ -1670,9 +1656,6 @@
     <t>/* 租房表 */</t>
   </si>
   <si>
-    <t>CREATE TABLE housecd.renting_house(</t>
-  </si>
-  <si>
     <t xml:space="preserve"> rentHouseId</t>
   </si>
   <si>
@@ -1697,9 +1680,6 @@
     <t>/*预约看房表*/</t>
   </si>
   <si>
-    <t>CREATE TABLE order_record(</t>
-  </si>
-  <si>
     <t>orderId</t>
   </si>
   <si>
@@ -1725,9 +1705,6 @@
   </si>
   <si>
     <t>/*楼盘动态表*/</t>
-  </si>
-  <si>
-    <t>CREATE TABLE house_dynamic(</t>
   </si>
   <si>
     <t>dynamicId</t>
@@ -2809,8 +2786,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3137,10 +3114,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K158"/>
+  <dimension ref="A1:K155"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4"/>
@@ -4449,7 +4426,7 @@
       <c r="K68" s="44"/>
     </row>
     <row r="69" ht="72" spans="1:11">
-      <c r="A69" s="36" t="s">
+      <c r="A69" s="52" t="s">
         <v>130</v>
       </c>
       <c r="B69" s="37" t="s">
@@ -4474,7 +4451,7 @@
       <c r="K69" s="36"/>
     </row>
     <row r="70" ht="28.8" spans="1:11">
-      <c r="A70" s="36"/>
+      <c r="A70" s="10"/>
       <c r="B70" s="22" t="s">
         <v>134</v>
       </c>
@@ -4497,7 +4474,7 @@
       <c r="K70" s="19"/>
     </row>
     <row r="71" ht="28.8" spans="1:11">
-      <c r="A71" s="36"/>
+      <c r="A71" s="10"/>
       <c r="B71" s="37" t="s">
         <v>138</v>
       </c>
@@ -4520,7 +4497,7 @@
       <c r="K71" s="36"/>
     </row>
     <row r="72" s="2" customFormat="1" spans="1:11">
-      <c r="A72" s="36"/>
+      <c r="A72" s="10"/>
       <c r="B72" s="22" t="s">
         <v>142</v>
       </c>
@@ -4540,12 +4517,10 @@
       <c r="J72" s="19"/>
       <c r="K72" s="19"/>
     </row>
-    <row r="73" ht="43.2" spans="1:11">
-      <c r="A73" s="97" t="s">
+    <row r="73" ht="28.8" spans="1:11">
+      <c r="A73" s="10"/>
+      <c r="B73" s="52" t="s">
         <v>145</v>
-      </c>
-      <c r="B73" s="37" t="s">
-        <v>146</v>
       </c>
       <c r="C73" s="37" t="s">
         <v>62</v>
@@ -4554,184 +4529,198 @@
         <v>28</v>
       </c>
       <c r="E73" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="F73" s="37" t="s">
         <v>147</v>
-      </c>
-      <c r="F73" s="37" t="s">
-        <v>148</v>
       </c>
       <c r="G73" s="36"/>
       <c r="H73" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I73" s="36"/>
       <c r="J73" s="36"/>
       <c r="K73" s="36"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="36"/>
-      <c r="B74" s="37"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37" t="s">
+      <c r="E74" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F74" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="36"/>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="36"/>
-      <c r="B75" s="37"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+    </row>
+    <row r="75" ht="28.8" spans="1:11">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
       <c r="C75" s="37"/>
       <c r="D75" s="37"/>
-      <c r="E75" s="37" t="s">
+      <c r="E75" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="F75" s="37" t="s">
+      <c r="F75" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="G75" s="98"/>
-      <c r="H75" s="98"/>
-      <c r="I75" s="98"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="36"/>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="36"/>
-      <c r="B76" s="37"/>
+      <c r="G75" s="84"/>
+      <c r="H75" s="84"/>
+      <c r="I75" s="84"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+    </row>
+    <row r="76" ht="28.8" spans="1:11">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
       <c r="C76" s="37"/>
       <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37" t="s">
+      <c r="E76" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="G76" s="98"/>
-      <c r="H76" s="99"/>
-      <c r="I76" s="99"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="36"/>
+      <c r="F76" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G76" s="84"/>
+      <c r="H76" s="84"/>
+      <c r="I76" s="84"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="36"/>
-      <c r="B77" s="37"/>
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="G77" s="98"/>
-      <c r="H77" s="99"/>
-      <c r="I77" s="99"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="36"/>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="36"/>
-      <c r="B78" s="37"/>
+      <c r="E77" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F77" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G77" s="84"/>
+      <c r="H77" s="85"/>
+      <c r="I77" s="85"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+    </row>
+    <row r="78" ht="28.8" spans="1:11">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="G78" s="98"/>
-      <c r="H78" s="99"/>
-      <c r="I78" s="99"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="36"/>
+      <c r="E78" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F78" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G78" s="84"/>
+      <c r="H78" s="85"/>
+      <c r="I78" s="85"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="36"/>
-      <c r="B79" s="37"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
       <c r="C79" s="37"/>
       <c r="D79" s="37"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="G79" s="98"/>
-      <c r="H79" s="99"/>
-      <c r="I79" s="99"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="36"/>
+      <c r="E79" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F79" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G79" s="84"/>
+      <c r="H79" s="85"/>
+      <c r="I79" s="85"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="36"/>
-      <c r="B80" s="37"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
       <c r="C80" s="37"/>
       <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="G80" s="98"/>
-      <c r="H80" s="99"/>
-      <c r="I80" s="99"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="36"/>
+      <c r="E80" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="F80" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="G80" s="84"/>
+      <c r="H80" s="85"/>
+      <c r="I80" s="85"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="36"/>
-      <c r="B81" s="37"/>
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
       <c r="C81" s="37"/>
       <c r="D81" s="37"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="G81" s="98"/>
-      <c r="H81" s="99"/>
-      <c r="I81" s="99"/>
-      <c r="J81" s="36"/>
-      <c r="K81" s="36"/>
-    </row>
-    <row r="82" ht="28.8" spans="1:11">
-      <c r="A82" s="36"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="37" t="s">
-        <v>159</v>
-      </c>
+      <c r="E81" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F81" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="G81" s="84"/>
+      <c r="H81" s="85"/>
+      <c r="I81" s="85"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="37"/>
       <c r="D82" s="37"/>
-      <c r="E82" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="F82" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="G82" s="98"/>
-      <c r="H82" s="99"/>
-      <c r="I82" s="99"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="36"/>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="36"/>
-      <c r="B83" s="37"/>
+      <c r="E82" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F82" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G82" s="84"/>
+      <c r="H82" s="85"/>
+      <c r="I82" s="85"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
+    </row>
+    <row r="83" ht="28.8" spans="1:11">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
       <c r="C83" s="37" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D83" s="37"/>
       <c r="E83" s="37" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="F83" s="37" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="G83" s="98"/>
-      <c r="H83" s="99"/>
+      <c r="H83" s="99" t="s">
+        <v>85</v>
+      </c>
       <c r="I83" s="99"/>
       <c r="J83" s="36"/>
       <c r="K83" s="36"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="36"/>
-      <c r="B84" s="37"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
       <c r="C84" s="37" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D84" s="37"/>
       <c r="E84" s="37" t="s">
@@ -4741,16 +4730,18 @@
         <v>109</v>
       </c>
       <c r="G84" s="98"/>
-      <c r="H84" s="99"/>
+      <c r="H84" s="99" t="s">
+        <v>170</v>
+      </c>
       <c r="I84" s="99"/>
       <c r="J84" s="36"/>
       <c r="K84" s="36"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="36"/>
-      <c r="B85" s="37"/>
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
       <c r="C85" s="37" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D85" s="37"/>
       <c r="E85" s="37" t="s">
@@ -4760,16 +4751,18 @@
         <v>109</v>
       </c>
       <c r="G85" s="98"/>
-      <c r="H85" s="99"/>
+      <c r="H85" s="99" t="s">
+        <v>172</v>
+      </c>
       <c r="I85" s="99"/>
       <c r="J85" s="36"/>
       <c r="K85" s="36"/>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="36"/>
-      <c r="B86" s="37"/>
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
       <c r="C86" s="37" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D86" s="37"/>
       <c r="E86" s="37" t="s">
@@ -4779,16 +4772,18 @@
         <v>109</v>
       </c>
       <c r="G86" s="98"/>
-      <c r="H86" s="99"/>
+      <c r="H86" s="99" t="s">
+        <v>174</v>
+      </c>
       <c r="I86" s="99"/>
       <c r="J86" s="36"/>
       <c r="K86" s="36"/>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="36"/>
-      <c r="B87" s="37"/>
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
       <c r="C87" s="37" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D87" s="37"/>
       <c r="E87" s="37" t="s">
@@ -4798,16 +4793,18 @@
         <v>109</v>
       </c>
       <c r="G87" s="98"/>
-      <c r="H87" s="99"/>
+      <c r="H87" s="99" t="s">
+        <v>176</v>
+      </c>
       <c r="I87" s="99"/>
       <c r="J87" s="36"/>
       <c r="K87" s="36"/>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="36"/>
-      <c r="B88" s="37"/>
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
       <c r="C88" s="37" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D88" s="37"/>
       <c r="E88" s="37" t="s">
@@ -4817,27 +4814,39 @@
         <v>109</v>
       </c>
       <c r="G88" s="98"/>
-      <c r="H88" s="99"/>
+      <c r="H88" s="99" t="s">
+        <v>178</v>
+      </c>
       <c r="I88" s="99"/>
       <c r="J88" s="36"/>
       <c r="K88" s="36"/>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="36"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="37"/>
+      <c r="A89" s="10"/>
+      <c r="B89" s="54"/>
+      <c r="C89" s="37" t="s">
+        <v>179</v>
+      </c>
       <c r="D89" s="37"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
+      <c r="E89" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="37" t="s">
+        <v>109</v>
+      </c>
       <c r="G89" s="98"/>
-      <c r="H89" s="99"/>
+      <c r="H89" s="99" t="s">
+        <v>180</v>
+      </c>
       <c r="I89" s="99"/>
       <c r="J89" s="36"/>
       <c r="K89" s="36"/>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="36"/>
-      <c r="B90" s="37"/>
+      <c r="A90" s="10"/>
+      <c r="B90" s="37" t="s">
+        <v>181</v>
+      </c>
       <c r="C90" s="37"/>
       <c r="D90" s="37"/>
       <c r="E90" s="37"/>
@@ -4849,193 +4858,211 @@
       <c r="K90" s="36"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="36"/>
-      <c r="B91" s="37"/>
-      <c r="C91" s="37"/>
+      <c r="A91" s="10"/>
+      <c r="B91" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" s="37" t="s">
+        <v>183</v>
+      </c>
       <c r="D91" s="37"/>
-      <c r="E91" s="37"/>
+      <c r="E91" s="37" t="s">
+        <v>184</v>
+      </c>
       <c r="F91" s="37"/>
       <c r="G91" s="98"/>
-      <c r="H91" s="99"/>
+      <c r="H91" s="99" t="s">
+        <v>185</v>
+      </c>
       <c r="I91" s="99"/>
       <c r="J91" s="36"/>
       <c r="K91" s="36"/>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="97"/>
-      <c r="B92" s="37"/>
-      <c r="C92" s="37"/>
+      <c r="A92" s="10"/>
+      <c r="B92" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="37" t="s">
+        <v>31</v>
+      </c>
       <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
+      <c r="E92" s="37" t="s">
+        <v>184</v>
+      </c>
       <c r="F92" s="37"/>
       <c r="G92" s="98"/>
-      <c r="H92" s="99"/>
+      <c r="H92" s="99" t="s">
+        <v>187</v>
+      </c>
       <c r="I92" s="99"/>
       <c r="J92" s="36"/>
       <c r="K92" s="36"/>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="36"/>
-      <c r="B93" s="37"/>
-      <c r="C93" s="37"/>
+      <c r="A93" s="10"/>
+      <c r="B93" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" s="37" t="s">
+        <v>189</v>
+      </c>
       <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
+      <c r="E93" s="37" t="s">
+        <v>184</v>
+      </c>
       <c r="F93" s="37"/>
       <c r="G93" s="98"/>
-      <c r="H93" s="99"/>
+      <c r="H93" s="99" t="s">
+        <v>190</v>
+      </c>
       <c r="I93" s="99"/>
       <c r="J93" s="36"/>
       <c r="K93" s="36"/>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="36"/>
-      <c r="B94" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C94" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="D94" s="22" t="s">
+      <c r="A94" s="10"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="98"/>
+      <c r="H94" s="99"/>
+      <c r="I94" s="99"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="10"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="98"/>
+      <c r="H95" s="99"/>
+      <c r="I95" s="99"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="36"/>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="10"/>
+      <c r="B96" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D96" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E94" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="F94" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="G94" s="84"/>
-      <c r="H94" s="85">
+      <c r="E96" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="F96" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G96" s="84"/>
+      <c r="H96" s="85">
         <v>0</v>
       </c>
-      <c r="I94" s="85" t="s">
+      <c r="I96" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="J94" s="19"/>
-      <c r="K94" s="19"/>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="36"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="F95" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="G95" s="19"/>
-      <c r="H95" s="19">
-        <v>1</v>
-      </c>
-      <c r="I95" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J95" s="19"/>
-      <c r="K95" s="19"/>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="36"/>
-      <c r="B96" s="22"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="F96" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="G96" s="19"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
       <c r="J96" s="19"/>
       <c r="K96" s="19"/>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="36"/>
+      <c r="A97" s="10"/>
       <c r="B97" s="22"/>
       <c r="C97" s="22"/>
       <c r="D97" s="22"/>
       <c r="E97" s="22" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="F97" s="22" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="G97" s="19"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
+      <c r="H97" s="19">
+        <v>1</v>
+      </c>
+      <c r="I97" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="J97" s="19"/>
       <c r="K97" s="19"/>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="36"/>
-      <c r="B98" s="37"/>
-      <c r="C98" s="37"/>
-      <c r="D98" s="37"/>
-      <c r="E98" s="37"/>
-      <c r="F98" s="37"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="36"/>
-      <c r="I98" s="36"/>
-      <c r="J98" s="36"/>
-      <c r="K98" s="36"/>
-    </row>
-    <row r="99" ht="43.2" spans="1:11">
-      <c r="A99" s="97" t="s">
-        <v>145</v>
-      </c>
-      <c r="B99" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="C99" s="37" t="s">
+      <c r="A98" s="10"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F98" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="19"/>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="10"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F99" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G99" s="19"/>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="19"/>
+      <c r="K99" s="19"/>
+    </row>
+    <row r="100" ht="28.8" spans="1:11">
+      <c r="A100" s="10"/>
+      <c r="B100" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="D99" s="37" t="s">
+      <c r="D100" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E99" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="F99" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="G99" s="36"/>
-      <c r="H99" s="36" t="s">
+      <c r="E100" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="F100" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="G100" s="36"/>
+      <c r="H100" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I99" s="36"/>
-      <c r="J99" s="36"/>
-      <c r="K99" s="36"/>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="36"/>
-      <c r="B100" s="37"/>
-      <c r="C100" s="37"/>
-      <c r="D100" s="37"/>
-      <c r="E100" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="F100" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="G100" s="98"/>
-      <c r="H100" s="99"/>
-      <c r="I100" s="99"/>
+      <c r="I100" s="36"/>
       <c r="J100" s="36"/>
       <c r="K100" s="36"/>
     </row>
     <row r="101" ht="28.8" spans="1:11">
-      <c r="A101" s="36"/>
+      <c r="A101" s="10"/>
       <c r="B101" s="37"/>
       <c r="C101" s="37"/>
       <c r="D101" s="37"/>
       <c r="E101" s="37" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F101" s="37" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="G101" s="98"/>
       <c r="H101" s="99"/>
@@ -5044,15 +5071,15 @@
       <c r="K101" s="36"/>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="36"/>
+      <c r="A102" s="10"/>
       <c r="B102" s="37"/>
       <c r="C102" s="37"/>
       <c r="D102" s="37"/>
       <c r="E102" s="37" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="F102" s="37" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G102" s="98"/>
       <c r="H102" s="99"/>
@@ -5061,15 +5088,15 @@
       <c r="K102" s="36"/>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="36"/>
+      <c r="A103" s="10"/>
       <c r="B103" s="37"/>
       <c r="C103" s="37"/>
       <c r="D103" s="37"/>
       <c r="E103" s="37" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="F103" s="37" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="G103" s="98"/>
       <c r="H103" s="99"/>
@@ -5078,12 +5105,12 @@
       <c r="K103" s="36"/>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="36"/>
+      <c r="A104" s="10"/>
       <c r="B104" s="37"/>
       <c r="C104" s="37"/>
       <c r="D104" s="37"/>
       <c r="E104" s="92" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="F104" s="37" t="s">
         <v>152</v>
@@ -5095,603 +5122,603 @@
       <c r="K104" s="36"/>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="36"/>
+      <c r="A105" s="10"/>
       <c r="B105" s="37"/>
       <c r="C105" s="37"/>
       <c r="D105" s="37"/>
       <c r="E105" s="92" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="F105" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="G105" s="99"/>
+      <c r="G105" s="98"/>
       <c r="H105" s="99"/>
       <c r="I105" s="99"/>
       <c r="J105" s="36"/>
       <c r="K105" s="36"/>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="36"/>
-      <c r="B106" s="37"/>
-      <c r="C106" s="37"/>
-      <c r="D106" s="37"/>
-      <c r="E106" s="37"/>
-      <c r="F106" s="37"/>
-      <c r="G106" s="36"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="36"/>
-      <c r="J106" s="36"/>
-      <c r="K106" s="36"/>
+      <c r="A106" s="10"/>
+      <c r="B106" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="F106" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G106" s="84"/>
+      <c r="H106" s="85">
+        <v>0</v>
+      </c>
+      <c r="I106" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="J106" s="19"/>
+      <c r="K106" s="19"/>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="97" t="s">
-        <v>145</v>
-      </c>
-      <c r="B107" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="C107" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D107" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E107" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="F107" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="G107" s="98"/>
-      <c r="H107" s="99">
-        <v>0</v>
-      </c>
-      <c r="I107" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="J107" s="36"/>
-      <c r="K107" s="36"/>
+      <c r="A107" s="10"/>
+      <c r="B107" s="22"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G107" s="19"/>
+      <c r="H107" s="19">
+        <v>1</v>
+      </c>
+      <c r="I107" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J107" s="19"/>
+      <c r="K107" s="19"/>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="36"/>
-      <c r="B108" s="37"/>
-      <c r="C108" s="37"/>
-      <c r="D108" s="37"/>
-      <c r="E108" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="F108" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36">
-        <v>1</v>
-      </c>
-      <c r="I108" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J108" s="36"/>
-      <c r="K108" s="36"/>
+      <c r="A108" s="10"/>
+      <c r="B108" s="22"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="22"/>
+      <c r="E108" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G108" s="19"/>
+      <c r="H108" s="19">
+        <v>2</v>
+      </c>
+      <c r="I108" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J108" s="19"/>
+      <c r="K108" s="19"/>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="36"/>
-      <c r="B109" s="37"/>
-      <c r="C109" s="37"/>
-      <c r="D109" s="37"/>
-      <c r="E109" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="F109" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="G109" s="36"/>
-      <c r="H109" s="36">
-        <v>2</v>
-      </c>
-      <c r="I109" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J109" s="36"/>
-      <c r="K109" s="36"/>
+      <c r="A109" s="10"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="F109" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="G109" s="19"/>
+      <c r="H109" s="19"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="19"/>
+      <c r="K109" s="19"/>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="36"/>
-      <c r="B110" s="37"/>
-      <c r="C110" s="37"/>
-      <c r="D110" s="37"/>
-      <c r="E110" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="F110" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="G110" s="36"/>
-      <c r="H110" s="36"/>
-      <c r="I110" s="36"/>
-      <c r="J110" s="36"/>
-      <c r="K110" s="36"/>
+      <c r="A110" s="10"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F110" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="G110" s="19"/>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="19"/>
+      <c r="K110" s="19"/>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="36"/>
-      <c r="B111" s="37"/>
-      <c r="C111" s="37"/>
-      <c r="D111" s="37"/>
-      <c r="E111" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="F111" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="G111" s="36"/>
-      <c r="H111" s="36"/>
-      <c r="I111" s="36"/>
-      <c r="J111" s="36"/>
-      <c r="K111" s="36"/>
+      <c r="A111" s="10"/>
+      <c r="B111" s="22"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G111" s="19"/>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="19"/>
+      <c r="K111" s="19"/>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="36"/>
-      <c r="B112" s="37"/>
-      <c r="C112" s="37"/>
-      <c r="D112" s="37"/>
-      <c r="E112" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="F112" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="G112" s="36"/>
-      <c r="H112" s="36"/>
-      <c r="I112" s="36"/>
-      <c r="J112" s="36"/>
-      <c r="K112" s="36"/>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="36"/>
-      <c r="B113" s="37"/>
-      <c r="C113" s="37"/>
-      <c r="D113" s="37"/>
-      <c r="E113" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="F113" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36"/>
-      <c r="I113" s="36"/>
-      <c r="J113" s="36"/>
-      <c r="K113" s="36"/>
+      <c r="A112" s="10"/>
+      <c r="B112" s="22"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="G112" s="19"/>
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="19"/>
+      <c r="K112" s="19"/>
+    </row>
+    <row r="113" ht="28.8" spans="1:11">
+      <c r="A113" s="10"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="F113" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="19"/>
+      <c r="K113" s="19"/>
     </row>
     <row r="114" ht="28.8" spans="1:11">
-      <c r="A114" s="36"/>
-      <c r="B114" s="37"/>
-      <c r="C114" s="37"/>
-      <c r="D114" s="37"/>
-      <c r="E114" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="F114" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="G114" s="36"/>
-      <c r="H114" s="36"/>
-      <c r="I114" s="36"/>
-      <c r="J114" s="36"/>
-      <c r="K114" s="36"/>
-    </row>
-    <row r="115" ht="28.8" spans="1:11">
-      <c r="A115" s="36"/>
-      <c r="B115" s="37"/>
-      <c r="C115" s="37"/>
-      <c r="D115" s="37"/>
-      <c r="E115" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="F115" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="G115" s="36"/>
-      <c r="H115" s="36"/>
-      <c r="I115" s="36"/>
-      <c r="J115" s="36"/>
-      <c r="K115" s="36"/>
+      <c r="A114" s="10"/>
+      <c r="B114" s="22"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="F114" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="G114" s="19"/>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="19"/>
+      <c r="K114" s="19"/>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="10"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="F115" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="G115" s="19"/>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="19"/>
+      <c r="K115" s="19"/>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="36"/>
-      <c r="B116" s="37"/>
-      <c r="C116" s="37"/>
-      <c r="D116" s="37"/>
-      <c r="E116" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="F116" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="G116" s="36"/>
-      <c r="H116" s="36"/>
-      <c r="I116" s="36"/>
-      <c r="J116" s="36"/>
-      <c r="K116" s="36"/>
+      <c r="A116" s="10"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="F116" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="G116" s="19"/>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="19"/>
+      <c r="K116" s="19"/>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="36"/>
-      <c r="B117" s="37"/>
-      <c r="C117" s="37"/>
-      <c r="D117" s="37"/>
-      <c r="E117" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="F117" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="G117" s="36"/>
-      <c r="H117" s="36"/>
-      <c r="I117" s="36"/>
-      <c r="J117" s="36"/>
-      <c r="K117" s="36"/>
+      <c r="A117" s="10"/>
+      <c r="B117" s="22"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="F117" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G117" s="19"/>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="19"/>
+      <c r="K117" s="19"/>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="36"/>
-      <c r="B118" s="37"/>
-      <c r="C118" s="37"/>
-      <c r="D118" s="37"/>
-      <c r="E118" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="F118" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="G118" s="36"/>
-      <c r="H118" s="36"/>
-      <c r="I118" s="36"/>
-      <c r="J118" s="36"/>
-      <c r="K118" s="36"/>
+      <c r="A118" s="10"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="F118" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G118" s="19"/>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="19"/>
+      <c r="K118" s="19"/>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="36"/>
-      <c r="B119" s="37"/>
-      <c r="C119" s="37"/>
-      <c r="D119" s="37"/>
-      <c r="E119" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="F119" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="G119" s="36"/>
-      <c r="H119" s="36"/>
-      <c r="I119" s="36"/>
-      <c r="J119" s="36"/>
-      <c r="K119" s="36"/>
+      <c r="A119" s="10"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="F119" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="G119" s="19"/>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="19"/>
+      <c r="K119" s="19"/>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="36"/>
-      <c r="B120" s="37"/>
-      <c r="C120" s="37"/>
-      <c r="D120" s="37"/>
-      <c r="E120" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="F120" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="G120" s="36"/>
-      <c r="H120" s="36"/>
-      <c r="I120" s="36"/>
-      <c r="J120" s="36"/>
-      <c r="K120" s="36"/>
+      <c r="A120" s="10"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="F120" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="G120" s="19"/>
+      <c r="H120" s="19"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="19"/>
+      <c r="K120" s="19"/>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="36"/>
-      <c r="B121" s="37"/>
-      <c r="C121" s="37"/>
-      <c r="D121" s="37"/>
-      <c r="E121" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="F121" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="G121" s="36"/>
-      <c r="H121" s="36"/>
-      <c r="I121" s="36"/>
-      <c r="J121" s="36"/>
-      <c r="K121" s="36"/>
+      <c r="A121" s="10"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="22"/>
+      <c r="E121" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="F121" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="19"/>
+      <c r="K121" s="19"/>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" s="36"/>
-      <c r="B122" s="37"/>
-      <c r="C122" s="37"/>
+      <c r="A122" s="10"/>
+      <c r="B122" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="C122" s="37" t="s">
+        <v>135</v>
+      </c>
       <c r="D122" s="37"/>
-      <c r="E122" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="F122" s="37" t="s">
+      <c r="E122" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="G122" s="36"/>
-      <c r="H122" s="36"/>
+      <c r="F122" s="92" t="s">
+        <v>235</v>
+      </c>
+      <c r="G122" s="99"/>
+      <c r="H122" s="99" t="s">
+        <v>137</v>
+      </c>
       <c r="I122" s="36"/>
       <c r="J122" s="36"/>
       <c r="K122" s="36"/>
     </row>
     <row r="123" spans="1:11">
-      <c r="A123" s="36"/>
+      <c r="A123" s="10"/>
       <c r="B123" s="37"/>
       <c r="C123" s="37"/>
       <c r="D123" s="37"/>
       <c r="E123" s="37"/>
       <c r="F123" s="37"/>
-      <c r="G123" s="36"/>
-      <c r="H123" s="36"/>
       <c r="I123" s="36"/>
       <c r="J123" s="36"/>
       <c r="K123" s="36"/>
     </row>
     <row r="124" ht="28.8" spans="1:11">
-      <c r="A124" s="97" t="s">
-        <v>145</v>
-      </c>
-      <c r="B124" s="37" t="s">
+      <c r="A124" s="10"/>
+      <c r="B124" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C124" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="D124" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E124" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F124" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="G124" s="19"/>
+      <c r="H124" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="I124" s="19"/>
+      <c r="J124" s="19"/>
+      <c r="K124" s="19"/>
+    </row>
+    <row r="125" ht="28.8" spans="1:11">
+      <c r="A125" s="10"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
+      <c r="E125" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="F125" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G125" s="84"/>
+      <c r="H125" s="85"/>
+      <c r="I125" s="85"/>
+      <c r="J125" s="19"/>
+      <c r="K125" s="19"/>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="10"/>
+      <c r="B126" s="22"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="22"/>
+      <c r="E126" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F126" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G126" s="84"/>
+      <c r="H126" s="85"/>
+      <c r="I126" s="85"/>
+      <c r="J126" s="19"/>
+      <c r="K126" s="19"/>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="10"/>
+      <c r="B127" s="22"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="22"/>
+      <c r="E127" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="F127" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="G127" s="84"/>
+      <c r="H127" s="85"/>
+      <c r="I127" s="85"/>
+      <c r="J127" s="19"/>
+      <c r="K127" s="19"/>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="10"/>
+      <c r="B128" s="22"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="22"/>
+      <c r="E128" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="F128" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G128" s="84"/>
+      <c r="H128" s="85"/>
+      <c r="I128" s="85"/>
+      <c r="J128" s="19"/>
+      <c r="K128" s="19"/>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="10"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="22"/>
+      <c r="D129" s="22"/>
+      <c r="E129" s="86" t="s">
+        <v>208</v>
+      </c>
+      <c r="F129" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G129" s="84"/>
+      <c r="H129" s="85"/>
+      <c r="I129" s="85"/>
+      <c r="J129" s="19"/>
+      <c r="K129" s="19"/>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="10"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="22"/>
+      <c r="E130" s="86" t="s">
+        <v>209</v>
+      </c>
+      <c r="F130" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="G130" s="84"/>
+      <c r="H130" s="85"/>
+      <c r="I130" s="85"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="10"/>
+      <c r="B131" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="C131" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="D131" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="F131" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="C124" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="D124" s="37"/>
-      <c r="E124" s="92" t="s">
-        <v>18</v>
-      </c>
-      <c r="F124" s="92" t="s">
-        <v>215</v>
-      </c>
-      <c r="G124" s="99"/>
-      <c r="H124" s="99" t="s">
-        <v>216</v>
-      </c>
-      <c r="I124" s="36"/>
-      <c r="J124" s="36"/>
-      <c r="K124" s="36"/>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125" s="36"/>
-      <c r="B125" s="37"/>
-      <c r="C125" s="37"/>
-      <c r="D125" s="37"/>
-      <c r="E125" s="37"/>
-      <c r="F125" s="37"/>
-      <c r="I125" s="36"/>
-      <c r="J125" s="36"/>
-      <c r="K125" s="36"/>
-    </row>
-    <row r="126" ht="43.2" spans="1:11">
-      <c r="A126" s="97" t="s">
-        <v>145</v>
-      </c>
-      <c r="B126" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="C126" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="D126" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E126" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="F126" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="G126" s="36"/>
-      <c r="H126" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="I126" s="36"/>
-      <c r="J126" s="36"/>
-      <c r="K126" s="36"/>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127" s="36"/>
-      <c r="B127" s="37"/>
-      <c r="C127" s="37"/>
-      <c r="D127" s="37"/>
-      <c r="E127" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="F127" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="G127" s="98"/>
-      <c r="H127" s="99"/>
-      <c r="I127" s="99"/>
-      <c r="J127" s="36"/>
-      <c r="K127" s="36"/>
-    </row>
-    <row r="128" ht="28.8" spans="1:11">
-      <c r="A128" s="36"/>
-      <c r="B128" s="37"/>
-      <c r="C128" s="37"/>
-      <c r="D128" s="37"/>
-      <c r="E128" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="F128" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="G128" s="98"/>
-      <c r="H128" s="99"/>
-      <c r="I128" s="99"/>
-      <c r="J128" s="36"/>
-      <c r="K128" s="36"/>
-    </row>
-    <row r="129" spans="1:11">
-      <c r="A129" s="36"/>
-      <c r="B129" s="37"/>
-      <c r="C129" s="37"/>
-      <c r="D129" s="37"/>
-      <c r="E129" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="F129" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="G129" s="98"/>
-      <c r="H129" s="99"/>
-      <c r="I129" s="99"/>
-      <c r="J129" s="36"/>
-      <c r="K129" s="36"/>
-    </row>
-    <row r="130" ht="28.8" spans="1:11">
-      <c r="A130" s="36"/>
-      <c r="B130" s="37"/>
-      <c r="C130" s="37"/>
-      <c r="D130" s="37"/>
-      <c r="E130" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="F130" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="G130" s="98"/>
-      <c r="H130" s="99"/>
-      <c r="I130" s="99"/>
-      <c r="J130" s="36"/>
-      <c r="K130" s="36"/>
-    </row>
-    <row r="131" spans="1:11">
-      <c r="A131" s="36"/>
-      <c r="B131" s="37"/>
-      <c r="C131" s="37"/>
-      <c r="D131" s="37"/>
-      <c r="E131" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="F131" s="37" t="s">
-        <v>187</v>
-      </c>
       <c r="G131" s="98"/>
-      <c r="H131" s="99"/>
-      <c r="I131" s="99"/>
+      <c r="H131" s="99">
+        <v>0</v>
+      </c>
+      <c r="I131" s="99" t="s">
+        <v>16</v>
+      </c>
       <c r="J131" s="36"/>
       <c r="K131" s="36"/>
     </row>
     <row r="132" spans="1:11">
-      <c r="A132" s="36"/>
+      <c r="A132" s="10"/>
       <c r="B132" s="37"/>
       <c r="C132" s="37"/>
       <c r="D132" s="37"/>
-      <c r="E132" s="92" t="s">
-        <v>188</v>
+      <c r="E132" s="37" t="s">
+        <v>206</v>
       </c>
       <c r="F132" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="G132" s="98"/>
-      <c r="H132" s="99"/>
-      <c r="I132" s="99"/>
+        <v>207</v>
+      </c>
+      <c r="G132" s="36"/>
+      <c r="H132" s="36">
+        <v>1</v>
+      </c>
+      <c r="I132" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="J132" s="36"/>
       <c r="K132" s="36"/>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="36"/>
+      <c r="A133" s="10"/>
       <c r="B133" s="37"/>
       <c r="C133" s="37"/>
       <c r="D133" s="37"/>
-      <c r="E133" s="92" t="s">
-        <v>189</v>
-      </c>
-      <c r="F133" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="G133" s="99"/>
-      <c r="H133" s="99"/>
-      <c r="I133" s="99"/>
+      <c r="E133" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="F133" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G133" s="36"/>
+      <c r="H133" s="36">
+        <v>2</v>
+      </c>
+      <c r="I133" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="J133" s="36"/>
       <c r="K133" s="36"/>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" s="97" t="s">
-        <v>145</v>
-      </c>
-      <c r="B134" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="C134" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="D134" s="37" t="s">
-        <v>13</v>
-      </c>
+      <c r="A134" s="10"/>
+      <c r="B134" s="37"/>
+      <c r="C134" s="37"/>
+      <c r="D134" s="37"/>
       <c r="E134" s="37" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="F134" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="G134" s="98"/>
-      <c r="H134" s="99">
-        <v>0</v>
-      </c>
-      <c r="I134" s="99" t="s">
-        <v>16</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G134" s="36"/>
+      <c r="H134" s="36"/>
+      <c r="I134" s="36"/>
       <c r="J134" s="36"/>
       <c r="K134" s="36"/>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="36"/>
+      <c r="A135" s="10"/>
       <c r="B135" s="37"/>
       <c r="C135" s="37"/>
       <c r="D135" s="37"/>
       <c r="E135" s="37" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="F135" s="37" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="G135" s="36"/>
-      <c r="H135" s="36">
-        <v>1</v>
-      </c>
-      <c r="I135" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="H135" s="36"/>
+      <c r="I135" s="36"/>
       <c r="J135" s="36"/>
       <c r="K135" s="36"/>
     </row>
     <row r="136" spans="1:11">
-      <c r="A136" s="36"/>
+      <c r="A136" s="10"/>
       <c r="B136" s="37"/>
       <c r="C136" s="37"/>
       <c r="D136" s="37"/>
       <c r="E136" s="37" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="F136" s="37" t="s">
-        <v>4</v>
+        <v>219</v>
       </c>
       <c r="G136" s="36"/>
-      <c r="H136" s="36">
-        <v>2</v>
-      </c>
-      <c r="I136" s="36" t="s">
-        <v>23</v>
-      </c>
+      <c r="H136" s="36"/>
+      <c r="I136" s="36"/>
       <c r="J136" s="36"/>
       <c r="K136" s="36"/>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="36"/>
+      <c r="A137" s="10"/>
       <c r="B137" s="37"/>
       <c r="C137" s="37"/>
       <c r="D137" s="37"/>
       <c r="E137" s="37" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="F137" s="37" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="G137" s="36"/>
       <c r="H137" s="36"/>
@@ -5700,15 +5727,15 @@
       <c r="K137" s="36"/>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="36"/>
+      <c r="A138" s="10"/>
       <c r="B138" s="37"/>
       <c r="C138" s="37"/>
       <c r="D138" s="37"/>
       <c r="E138" s="37" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="F138" s="37" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="G138" s="36"/>
       <c r="H138" s="36"/>
@@ -5716,16 +5743,16 @@
       <c r="J138" s="36"/>
       <c r="K138" s="36"/>
     </row>
-    <row r="139" spans="1:11">
-      <c r="A139" s="36"/>
+    <row r="139" ht="28.8" spans="1:11">
+      <c r="A139" s="10"/>
       <c r="B139" s="37"/>
       <c r="C139" s="37"/>
       <c r="D139" s="37"/>
       <c r="E139" s="37" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="F139" s="37" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="G139" s="36"/>
       <c r="H139" s="36"/>
@@ -5733,16 +5760,16 @@
       <c r="J139" s="36"/>
       <c r="K139" s="36"/>
     </row>
-    <row r="140" ht="28.8" spans="1:11">
-      <c r="A140" s="36"/>
+    <row r="140" spans="1:11">
+      <c r="A140" s="10"/>
       <c r="B140" s="37"/>
       <c r="C140" s="37"/>
       <c r="D140" s="37"/>
       <c r="E140" s="37" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F140" s="37" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G140" s="36"/>
       <c r="H140" s="36"/>
@@ -5751,15 +5778,15 @@
       <c r="K140" s="36"/>
     </row>
     <row r="141" spans="1:11">
-      <c r="A141" s="36"/>
+      <c r="A141" s="10"/>
       <c r="B141" s="37"/>
       <c r="C141" s="37"/>
       <c r="D141" s="37"/>
       <c r="E141" s="37" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="F141" s="37" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="G141" s="36"/>
       <c r="H141" s="36"/>
@@ -5767,16 +5794,16 @@
       <c r="J141" s="36"/>
       <c r="K141" s="36"/>
     </row>
-    <row r="142" ht="28.8" spans="1:11">
-      <c r="A142" s="36"/>
+    <row r="142" spans="1:11">
+      <c r="A142" s="10"/>
       <c r="B142" s="37"/>
       <c r="C142" s="37"/>
       <c r="D142" s="37"/>
       <c r="E142" s="37" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="F142" s="37" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="G142" s="36"/>
       <c r="H142" s="36"/>
@@ -5785,15 +5812,15 @@
       <c r="K142" s="36"/>
     </row>
     <row r="143" spans="1:11">
-      <c r="A143" s="36"/>
+      <c r="A143" s="10"/>
       <c r="B143" s="37"/>
       <c r="C143" s="37"/>
       <c r="D143" s="37"/>
       <c r="E143" s="37" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="F143" s="37" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="G143" s="36"/>
       <c r="H143" s="36"/>
@@ -5802,15 +5829,15 @@
       <c r="K143" s="36"/>
     </row>
     <row r="144" spans="1:11">
-      <c r="A144" s="36"/>
+      <c r="A144" s="10"/>
       <c r="B144" s="37"/>
       <c r="C144" s="37"/>
       <c r="D144" s="37"/>
       <c r="E144" s="37" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="F144" s="37" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="G144" s="36"/>
       <c r="H144" s="36"/>
@@ -5819,15 +5846,15 @@
       <c r="K144" s="36"/>
     </row>
     <row r="145" spans="1:11">
-      <c r="A145" s="36"/>
+      <c r="A145" s="10"/>
       <c r="B145" s="37"/>
       <c r="C145" s="37"/>
       <c r="D145" s="37"/>
       <c r="E145" s="37" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F145" s="37" t="s">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="G145" s="36"/>
       <c r="H145" s="36"/>
@@ -5836,15 +5863,15 @@
       <c r="K145" s="36"/>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="36"/>
+      <c r="A146" s="10"/>
       <c r="B146" s="37"/>
       <c r="C146" s="37"/>
       <c r="D146" s="37"/>
       <c r="E146" s="37" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="F146" s="37" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="G146" s="36"/>
       <c r="H146" s="36"/>
@@ -5852,34 +5879,36 @@
       <c r="J146" s="36"/>
       <c r="K146" s="36"/>
     </row>
-    <row r="147" spans="1:11">
-      <c r="A147" s="36"/>
-      <c r="B147" s="37"/>
-      <c r="C147" s="37"/>
-      <c r="D147" s="37"/>
-      <c r="E147" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="F147" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="G147" s="36"/>
-      <c r="H147" s="36"/>
-      <c r="I147" s="36"/>
-      <c r="J147" s="36"/>
-      <c r="K147" s="36"/>
+    <row r="147" ht="28.8" spans="1:11">
+      <c r="A147" s="54"/>
+      <c r="B147" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="C147" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D147" s="22"/>
+      <c r="E147" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="F147" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="G147" s="85"/>
+      <c r="H147" s="85" t="s">
+        <v>247</v>
+      </c>
+      <c r="I147" s="19"/>
+      <c r="J147" s="19"/>
+      <c r="K147" s="19"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="36"/>
       <c r="B148" s="37"/>
       <c r="C148" s="37"/>
       <c r="D148" s="37"/>
-      <c r="E148" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="F148" s="37" t="s">
-        <v>211</v>
-      </c>
+      <c r="E148" s="37"/>
+      <c r="F148" s="37"/>
       <c r="G148" s="36"/>
       <c r="H148" s="36"/>
       <c r="I148" s="36"/>
@@ -5891,42 +5920,26 @@
       <c r="B149" s="37"/>
       <c r="C149" s="37"/>
       <c r="D149" s="37"/>
-      <c r="E149" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="F149" s="37" t="s">
-        <v>18</v>
-      </c>
+      <c r="E149" s="37"/>
+      <c r="F149" s="37"/>
       <c r="G149" s="36"/>
       <c r="H149" s="36"/>
       <c r="I149" s="36"/>
       <c r="J149" s="36"/>
       <c r="K149" s="36"/>
     </row>
-    <row r="150" ht="28.8" spans="1:11">
-      <c r="A150" s="97" t="s">
-        <v>145</v>
-      </c>
-      <c r="B150" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="C150" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="D150" s="37"/>
-      <c r="E150" s="92" t="s">
-        <v>18</v>
-      </c>
-      <c r="F150" s="92" t="s">
-        <v>215</v>
-      </c>
-      <c r="G150" s="99"/>
-      <c r="H150" s="99" t="s">
-        <v>228</v>
-      </c>
-      <c r="I150" s="36"/>
-      <c r="J150" s="36"/>
-      <c r="K150" s="36"/>
+    <row r="150" s="4" customFormat="1" spans="1:11">
+      <c r="A150" s="44"/>
+      <c r="B150" s="45"/>
+      <c r="C150" s="45"/>
+      <c r="D150" s="45"/>
+      <c r="E150" s="45"/>
+      <c r="F150" s="45"/>
+      <c r="G150" s="44"/>
+      <c r="H150" s="44"/>
+      <c r="I150" s="44"/>
+      <c r="J150" s="44"/>
+      <c r="K150" s="44"/>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="36"/>
@@ -5954,18 +5967,18 @@
       <c r="J152" s="36"/>
       <c r="K152" s="36"/>
     </row>
-    <row r="153" s="4" customFormat="1" spans="1:11">
-      <c r="A153" s="44"/>
-      <c r="B153" s="45"/>
-      <c r="C153" s="45"/>
-      <c r="D153" s="45"/>
-      <c r="E153" s="45"/>
-      <c r="F153" s="45"/>
-      <c r="G153" s="44"/>
-      <c r="H153" s="44"/>
-      <c r="I153" s="44"/>
-      <c r="J153" s="44"/>
-      <c r="K153" s="44"/>
+    <row r="153" spans="1:11">
+      <c r="A153" s="36"/>
+      <c r="B153" s="37"/>
+      <c r="C153" s="37"/>
+      <c r="D153" s="37"/>
+      <c r="E153" s="37"/>
+      <c r="F153" s="37"/>
+      <c r="G153" s="36"/>
+      <c r="H153" s="36"/>
+      <c r="I153" s="36"/>
+      <c r="J153" s="36"/>
+      <c r="K153" s="36"/>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="36"/>
@@ -5993,53 +6006,15 @@
       <c r="J155" s="36"/>
       <c r="K155" s="36"/>
     </row>
-    <row r="156" spans="1:11">
-      <c r="A156" s="36"/>
-      <c r="B156" s="37"/>
-      <c r="C156" s="37"/>
-      <c r="D156" s="37"/>
-      <c r="E156" s="37"/>
-      <c r="F156" s="37"/>
-      <c r="G156" s="36"/>
-      <c r="H156" s="36"/>
-      <c r="I156" s="36"/>
-      <c r="J156" s="36"/>
-      <c r="K156" s="36"/>
-    </row>
-    <row r="157" spans="1:11">
-      <c r="A157" s="36"/>
-      <c r="B157" s="37"/>
-      <c r="C157" s="37"/>
-      <c r="D157" s="37"/>
-      <c r="E157" s="37"/>
-      <c r="F157" s="37"/>
-      <c r="G157" s="36"/>
-      <c r="H157" s="36"/>
-      <c r="I157" s="36"/>
-      <c r="J157" s="36"/>
-      <c r="K157" s="36"/>
-    </row>
-    <row r="158" spans="1:11">
-      <c r="A158" s="36"/>
-      <c r="B158" s="37"/>
-      <c r="C158" s="37"/>
-      <c r="D158" s="37"/>
-      <c r="E158" s="37"/>
-      <c r="F158" s="37"/>
-      <c r="G158" s="36"/>
-      <c r="H158" s="36"/>
-      <c r="I158" s="36"/>
-      <c r="J158" s="36"/>
-      <c r="K158" s="36"/>
-    </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="55">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="A4:A31"/>
     <mergeCell ref="A34:A50"/>
     <mergeCell ref="A53:A65"/>
+    <mergeCell ref="A69:A147"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B14:B19"/>
@@ -6055,6 +6030,7 @@
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B56:B59"/>
     <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B73:B89"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C14:C19"/>
@@ -6107,8 +6083,8 @@
   <sheetPr/>
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="F131" sqref="F131"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4"/>
@@ -6169,17 +6145,17 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:11">
       <c r="A3" s="10" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="11" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -6212,17 +6188,17 @@
     <row r="5" s="2" customFormat="1" ht="15" customHeight="1" spans="1:11">
       <c r="A5" s="10"/>
       <c r="B5" s="17" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="19" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="20"/>
@@ -6246,17 +6222,17 @@
     <row r="7" s="2" customFormat="1" spans="1:11">
       <c r="A7" s="10"/>
       <c r="B7" s="23" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="25" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="26">
@@ -6274,10 +6250,10 @@
       <c r="C8" s="27"/>
       <c r="D8" s="24"/>
       <c r="E8" s="25" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25">
@@ -6298,7 +6274,7 @@
         <v>79</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -6312,10 +6288,10 @@
       <c r="C10" s="28"/>
       <c r="D10" s="24"/>
       <c r="E10" s="25" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -6326,17 +6302,17 @@
     <row r="11" s="2" customFormat="1" spans="1:11">
       <c r="A11" s="10"/>
       <c r="B11" s="29" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="31" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="G11" s="31"/>
       <c r="H11" s="31">
@@ -6380,7 +6356,7 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="1:11">
       <c r="A14" s="35" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -6564,7 +6540,7 @@
     </row>
     <row r="28" s="2" customFormat="1" spans="1:11">
       <c r="A28" s="35" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -6748,7 +6724,7 @@
     </row>
     <row r="42" s="2" customFormat="1" spans="1:11">
       <c r="A42" s="35" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -6932,7 +6908,7 @@
     </row>
     <row r="56" s="2" customFormat="1" spans="1:11">
       <c r="A56" s="35" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="B56" s="36"/>
       <c r="C56" s="36"/>
@@ -7090,7 +7066,7 @@
     </row>
     <row r="68" s="2" customFormat="1" ht="28.8" spans="1:11">
       <c r="A68" s="35" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="B68" s="36"/>
       <c r="C68" s="36"/>
@@ -7248,7 +7224,7 @@
     </row>
     <row r="80" s="2" customFormat="1" spans="1:11">
       <c r="A80" s="35" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="B80" s="36"/>
       <c r="C80" s="36"/>
@@ -7406,10 +7382,10 @@
     </row>
     <row r="92" s="2" customFormat="1" spans="1:11">
       <c r="A92" s="35" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="C92" s="36"/>
       <c r="D92" s="37"/>
@@ -7450,7 +7426,7 @@
     <row r="95" s="2" customFormat="1" spans="1:11">
       <c r="A95" s="35"/>
       <c r="B95" s="47" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="C95" s="46"/>
       <c r="D95" s="47"/>
@@ -7504,7 +7480,7 @@
     <row r="99" s="2" customFormat="1" spans="1:11">
       <c r="A99" s="35"/>
       <c r="B99" s="36" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="C99" s="36"/>
       <c r="D99" s="37"/>
@@ -7570,7 +7546,7 @@
     </row>
     <row r="104" s="2" customFormat="1" spans="1:11">
       <c r="A104" s="35" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="B104" s="36"/>
       <c r="C104" s="36"/>
@@ -7728,13 +7704,13 @@
     </row>
     <row r="116" s="2" customFormat="1" ht="43.2" spans="1:11">
       <c r="A116" s="35" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="B116" s="52" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="C116" s="36" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="D116" s="37" t="s">
         <v>28</v>
@@ -7743,11 +7719,11 @@
         <v>21</v>
       </c>
       <c r="F116" s="36" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="G116" s="36"/>
       <c r="H116" s="36" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="I116" s="36"/>
       <c r="J116" s="36"/>
@@ -7762,7 +7738,7 @@
         <v>112</v>
       </c>
       <c r="F117" s="50" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="G117" s="50"/>
       <c r="H117" s="50"/>
@@ -7779,7 +7755,7 @@
         <v>114</v>
       </c>
       <c r="F118" s="36" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="G118" s="36"/>
       <c r="H118" s="36"/>
@@ -7790,16 +7766,16 @@
     <row r="119" s="2" customFormat="1" spans="1:11">
       <c r="A119" s="35"/>
       <c r="B119" s="46" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="C119" s="46" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="D119" s="47" t="s">
         <v>13</v>
       </c>
       <c r="E119" s="19" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="F119" s="19"/>
       <c r="G119" s="19"/>
@@ -7858,14 +7834,14 @@
     <row r="123" s="2" customFormat="1" spans="1:11">
       <c r="A123" s="35"/>
       <c r="B123" s="52" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="C123" s="36"/>
       <c r="D123" s="37" t="s">
         <v>57</v>
       </c>
       <c r="E123" s="36" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="F123" s="36" t="s">
         <v>9</v>
@@ -7886,10 +7862,10 @@
       <c r="C124" s="36"/>
       <c r="D124" s="37"/>
       <c r="E124" s="36" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="F124" s="36" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="G124" s="36"/>
       <c r="H124" s="36">
@@ -7904,17 +7880,17 @@
     <row r="125" s="2" customFormat="1" spans="1:11">
       <c r="A125" s="35"/>
       <c r="B125" s="17" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="C125" s="19"/>
       <c r="D125" s="22" t="s">
         <v>89</v>
       </c>
       <c r="E125" s="19" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="G125" s="19"/>
       <c r="H125" s="19">
@@ -8053,10 +8029,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D338"/>
+  <dimension ref="A1:D337"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A51" sqref="$A51:$XFD51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -8066,1236 +8042,1091 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="B5" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="B15" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="B16" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="B18" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="B24" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="B25" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="B26" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="B31" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="B32" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="C37" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="B44" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="B45" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="B47" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="B52" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="C52" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="B62" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="B63" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="B64" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C64" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="B65" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="B66" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="C71" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="B74" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B75" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B76" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="D76" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="B77" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="B78" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C78" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="B79" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="C84" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B85" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="B86" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C86" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B88" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B93" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="B95" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="B96" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="C96" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="B97" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="B99" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="B100" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B101" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="B102" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="B103" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C103" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B104" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="B116" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="B119" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B124" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="B125" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="B127" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B132" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B139" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B144" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B152" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B159" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B162" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B167" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B169" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B174" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B177" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B179" t="s">
         <v>64</v>
       </c>
       <c r="C179" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B182" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B198" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B206" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B207" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
-        <v>310</v>
+        <v>486</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B213" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B216" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B221" t="s">
         <v>491</v>
@@ -9308,20 +9139,15 @@
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B224" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="227" spans="1:1">
@@ -9329,17 +9155,12 @@
         <v>493</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
-        <v>494</v>
-      </c>
-    </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B229" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="230" spans="1:1">
@@ -9349,575 +9170,510 @@
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B232" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B239" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B249" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B250" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" t="s">
-        <v>510</v>
+        <v>341</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B255" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B256" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B258" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B259" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B260" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B261" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" t="s">
-        <v>295</v>
+        <v>341</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B266" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B268" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B269" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B286" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B287" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1">
-      <c r="A288" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1">
-      <c r="A291" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B292" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B294" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B295" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B313" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B314" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1">
-      <c r="A315" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1">
-      <c r="A319" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B320" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="B326" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B327" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1">
-      <c r="A328" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1">
-      <c r="A331" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="B332" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="B336" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B337" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1">
-      <c r="A338" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/src/sql/HouseCD接口文档0.1.xlsx
+++ b/src/sql/HouseCD接口文档0.1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="671">
   <si>
     <t>URL地址</t>
   </si>
@@ -1164,6 +1164,9 @@
     <t>编辑备注</t>
   </si>
   <si>
+    <t>/guest/put</t>
+  </si>
+  <si>
     <t>guestComment</t>
   </si>
   <si>
@@ -1174,6 +1177,9 @@
   </si>
   <si>
     <t>删除客户</t>
+  </si>
+  <si>
+    <t>/guest/del</t>
   </si>
   <si>
     <t>其他</t>
@@ -6191,8 +6197,8 @@
   <sheetPr/>
   <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4"/>
@@ -8386,12 +8392,14 @@
       <c r="B130" s="56" t="s">
         <v>374</v>
       </c>
-      <c r="C130" s="48"/>
+      <c r="C130" s="48" t="s">
+        <v>375</v>
+      </c>
       <c r="D130" s="48" t="s">
         <v>57</v>
       </c>
       <c r="E130" s="47" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F130" s="47" t="s">
         <v>9</v>
@@ -8412,10 +8420,10 @@
       <c r="C131" s="48"/>
       <c r="D131" s="48"/>
       <c r="E131" s="47" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F131" s="47" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G131" s="47"/>
       <c r="H131" s="47">
@@ -8430,17 +8438,19 @@
     <row r="132" s="2" customFormat="1" spans="1:11">
       <c r="A132" s="36"/>
       <c r="B132" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="C132" s="23"/>
+        <v>379</v>
+      </c>
+      <c r="C132" s="23" t="s">
+        <v>380</v>
+      </c>
       <c r="D132" s="23" t="s">
         <v>90</v>
       </c>
       <c r="E132" s="20" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F132" s="20" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G132" s="20"/>
       <c r="H132" s="20">
@@ -8484,17 +8494,17 @@
     </row>
     <row r="135" s="2" customFormat="1" spans="1:11">
       <c r="A135" s="57" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B135" s="66" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C135" s="51" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D135" s="51"/>
       <c r="E135" s="52" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F135" s="52"/>
       <c r="G135" s="52"/>
@@ -8506,17 +8516,17 @@
     <row r="136" s="2" customFormat="1" ht="28.8" spans="1:11">
       <c r="A136" s="11"/>
       <c r="B136" s="66" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C136" s="51" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D136" s="51"/>
       <c r="E136" s="52" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F136" s="52" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G136" s="52"/>
       <c r="H136" s="52"/>
@@ -8527,17 +8537,17 @@
     <row r="137" s="2" customFormat="1" spans="1:11">
       <c r="A137" s="11"/>
       <c r="B137" s="66" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C137" s="51" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D137" s="51"/>
       <c r="E137" s="52" t="s">
         <v>251</v>
       </c>
       <c r="F137" s="52" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G137" s="52"/>
       <c r="H137" s="52"/>
@@ -8650,8 +8660,8 @@
   <sheetPr/>
   <dimension ref="A1:F311"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -8661,258 +8671,258 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B9" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B14" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B15" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B17" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B21" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B22" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B23" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B28" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B29" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C33" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B40" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B41" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B43" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B46" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C46" t="s">
         <v>66</v>
@@ -8920,328 +8930,328 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B56" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B57" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B58" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C58" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B59" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B60" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C64" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B67" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B68" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B69" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D69" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B70" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B71" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C71" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B72" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C75" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B76" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B77" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C77" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B79" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B84" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B86" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B87" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C87" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B88" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B90" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B91" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B92" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B93" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B94" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C94" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B95" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -9251,17 +9261,17 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B99" t="s">
         <v>66</v>
@@ -9269,279 +9279,279 @@
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B101" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F102" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B106" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B109" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B111" t="s">
         <v>66</v>
       </c>
       <c r="C111" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B114" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B130" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B134" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B137" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B140" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B143" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B146" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B149" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="153" spans="1:1">
@@ -9551,315 +9561,315 @@
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B157" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B158" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B162" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B163" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B173" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B174" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B178" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B180" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B181" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B182" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B183" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B184" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B190" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B191" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B208" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B209" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B212" t="s">
         <v>66</v>
@@ -9867,479 +9877,479 @@
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B214" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B215" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B233" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B234" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B244" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B245" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B254" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B257" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B261" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B272" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B276" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B279" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B283" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B284" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B286" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B298" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B301" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B304" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B311" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
